--- a/Code/Results/Cases/Case_5_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.393154615845162</v>
+        <v>3.088189181434586</v>
       </c>
       <c r="C2">
-        <v>0.7416665622898506</v>
+        <v>0.4151783716840498</v>
       </c>
       <c r="D2">
-        <v>0.01666235142283412</v>
+        <v>0.00837503406409823</v>
       </c>
       <c r="E2">
-        <v>0.1266449933452662</v>
+        <v>0.01895908513058586</v>
       </c>
       <c r="F2">
-        <v>2.585449205611582</v>
+        <v>2.914143052642899</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.403603373589533</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1060434012715099</v>
+        <v>0.05984755575203593</v>
       </c>
       <c r="K2">
-        <v>0.7165207657918131</v>
+        <v>0.7386428146213575</v>
       </c>
       <c r="L2">
-        <v>0.3133533060218809</v>
+        <v>0.1566195694084982</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5061750556185558</v>
+      </c>
+      <c r="N2">
+        <v>2.079390098390817</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.062056510796538</v>
+        <v>2.742378543062841</v>
       </c>
       <c r="C3">
-        <v>0.6374468496291001</v>
+        <v>0.3577339669868138</v>
       </c>
       <c r="D3">
-        <v>0.01723824890024162</v>
+        <v>0.007255975281555749</v>
       </c>
       <c r="E3">
-        <v>0.1095607575550979</v>
+        <v>0.01864078381586731</v>
       </c>
       <c r="F3">
-        <v>2.313297115550043</v>
+        <v>2.761938841231</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.280053127834663</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09270604288576223</v>
+        <v>0.0607591134354486</v>
       </c>
       <c r="K3">
-        <v>0.6169284779969644</v>
+        <v>0.6501192447532844</v>
       </c>
       <c r="L3">
-        <v>0.2698750618128258</v>
+        <v>0.1451405553069236</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4531742960328131</v>
+      </c>
+      <c r="N3">
+        <v>2.10890925258262</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.861961192931403</v>
+        <v>2.534758667832534</v>
       </c>
       <c r="C4">
-        <v>0.5746161662084148</v>
+        <v>0.3230403606370373</v>
       </c>
       <c r="D4">
-        <v>0.01760809138688302</v>
+        <v>0.006606925001239716</v>
       </c>
       <c r="E4">
-        <v>0.09930764524910529</v>
+        <v>0.01845043109007749</v>
       </c>
       <c r="F4">
-        <v>2.151773092015475</v>
+        <v>2.673313266845412</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.207224894140083</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08474894417504686</v>
+        <v>0.06133713593866119</v>
       </c>
       <c r="K4">
-        <v>0.5567816545355129</v>
+        <v>0.5968909358098173</v>
       </c>
       <c r="L4">
-        <v>0.2437277927001631</v>
+        <v>0.1383111825682377</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4213989670055653</v>
+      </c>
+      <c r="N4">
+        <v>2.129201535438227</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.781103478546811</v>
+        <v>2.451215503272181</v>
       </c>
       <c r="C5">
-        <v>0.5492587470708372</v>
+        <v>0.309027160027</v>
       </c>
       <c r="D5">
-        <v>0.01776244459184539</v>
+        <v>0.00635070144683425</v>
       </c>
       <c r="E5">
-        <v>0.09518097558150629</v>
+        <v>0.01837393035351664</v>
       </c>
       <c r="F5">
-        <v>2.08719553220466</v>
+        <v>2.638321024727006</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.178228078890513</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08155739370942072</v>
+        <v>0.06157732539624439</v>
       </c>
       <c r="K5">
-        <v>0.5324850976950941</v>
+        <v>0.5754520527572708</v>
       </c>
       <c r="L5">
-        <v>0.2331908969430785</v>
+        <v>0.1355791473537309</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4086247553558806</v>
+      </c>
+      <c r="N5">
+        <v>2.137990781424136</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.76771500283877</v>
+        <v>2.437404120040981</v>
       </c>
       <c r="C6">
-        <v>0.5450618185581391</v>
+        <v>0.3067072443986945</v>
       </c>
       <c r="D6">
-        <v>0.01778828263337573</v>
+        <v>0.006308619475685617</v>
       </c>
       <c r="E6">
-        <v>0.09449864033278388</v>
+        <v>0.01836128633125034</v>
       </c>
       <c r="F6">
-        <v>2.076543310151351</v>
+        <v>2.632575922286705</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.173452091301769</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08103031989452703</v>
+        <v>0.06161748989378513</v>
       </c>
       <c r="K6">
-        <v>0.5284625260549092</v>
+        <v>0.5719065099455989</v>
       </c>
       <c r="L6">
-        <v>0.2314478614631454</v>
+        <v>0.1351284629007381</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.4065136339297126</v>
+      </c>
+      <c r="N6">
+        <v>2.139480940711138</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.86086810601077</v>
+        <v>2.533627821360199</v>
       </c>
       <c r="C7">
-        <v>0.5742732454352222</v>
+        <v>0.3228508945730084</v>
       </c>
       <c r="D7">
-        <v>0.01761015886160777</v>
+        <v>0.006603437626989006</v>
       </c>
       <c r="E7">
-        <v>0.09925179277210461</v>
+        <v>0.01844939530552892</v>
       </c>
       <c r="F7">
-        <v>2.150897334789647</v>
+        <v>2.672836915357536</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.206831176476015</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08470570437826552</v>
+        <v>0.06134035638513646</v>
       </c>
       <c r="K7">
-        <v>0.5564531654339433</v>
+        <v>0.5966008219543326</v>
       </c>
       <c r="L7">
-        <v>0.243585233918914</v>
+        <v>0.1382741360223108</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4212260063495279</v>
+      </c>
+      <c r="N7">
+        <v>2.129317996520072</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.278250562149083</v>
+        <v>2.967900542948598</v>
       </c>
       <c r="C8">
-        <v>0.705462049738145</v>
+        <v>0.39523879798395</v>
       </c>
       <c r="D8">
-        <v>0.01685726619620098</v>
+        <v>0.007980462089310691</v>
       </c>
       <c r="E8">
-        <v>0.1207001938883003</v>
+        <v>0.01884814663848067</v>
       </c>
       <c r="F8">
-        <v>2.490353588341065</v>
+        <v>2.860603929760956</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.360322686963613</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1013918731062198</v>
+        <v>0.06015807875439361</v>
       </c>
       <c r="K8">
-        <v>0.6819487402050655</v>
+        <v>0.7078668498915803</v>
       </c>
       <c r="L8">
-        <v>0.2982357479770954</v>
+        <v>0.152613667288712</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.487729533383586</v>
+      </c>
+      <c r="N8">
+        <v>2.089102738879106</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.128337825565609</v>
+        <v>3.862891577280607</v>
       </c>
       <c r="C9">
-        <v>0.974238305279016</v>
+        <v>0.5427989240654369</v>
       </c>
       <c r="D9">
-        <v>0.01553285223654832</v>
+        <v>0.011048565748073</v>
       </c>
       <c r="E9">
-        <v>0.1650423456007601</v>
+        <v>0.01968112561574697</v>
       </c>
       <c r="F9">
-        <v>3.208280389782004</v>
+        <v>3.271645212573929</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.689479457627755</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1363270919647661</v>
+        <v>0.05798336498367895</v>
       </c>
       <c r="K9">
-        <v>0.9379662603616197</v>
+        <v>0.9365347215681936</v>
       </c>
       <c r="L9">
-        <v>0.4107547043980304</v>
+        <v>0.1826703618262897</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.6251528464796152</v>
+      </c>
+      <c r="N9">
+        <v>2.028681994112716</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.782074925328402</v>
+        <v>4.556262787299772</v>
       </c>
       <c r="C10">
-        <v>1.182418716265374</v>
+        <v>0.6562333953844757</v>
       </c>
       <c r="D10">
-        <v>0.0146906726476761</v>
+        <v>0.01363132106614984</v>
       </c>
       <c r="E10">
-        <v>0.1996553652716315</v>
+        <v>0.02034131627238978</v>
       </c>
       <c r="F10">
-        <v>3.780291437886831</v>
+        <v>3.60677653167653</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.95498793738534</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1639369915002895</v>
+        <v>0.05647069863337828</v>
       </c>
       <c r="K10">
-        <v>1.135242858721739</v>
+        <v>1.113331615554799</v>
       </c>
       <c r="L10">
-        <v>0.4982749843838548</v>
+        <v>0.2062465024189208</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.7318263274571777</v>
+      </c>
+      <c r="N10">
+        <v>1.997466195855296</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.088441375845093</v>
+        <v>4.881870551112684</v>
       </c>
       <c r="C11">
-        <v>1.280434442448609</v>
+        <v>0.7093407474985725</v>
       </c>
       <c r="D11">
-        <v>0.01434664889834281</v>
+        <v>0.01490519168995874</v>
       </c>
       <c r="E11">
-        <v>0.2160142176199145</v>
+        <v>0.02065667588933007</v>
       </c>
       <c r="F11">
-        <v>4.053543939423406</v>
+        <v>3.768231245656352</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.082635853052111</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1770770348211244</v>
+        <v>0.05580042066159896</v>
       </c>
       <c r="K11">
-        <v>1.227814370219264</v>
+        <v>1.196287438209353</v>
       </c>
       <c r="L11">
-        <v>0.539566691328865</v>
+        <v>0.2173759578419947</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.7819611779070428</v>
+      </c>
+      <c r="N11">
+        <v>1.986623702116901</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.206004863103146</v>
+        <v>5.006863502611168</v>
       </c>
       <c r="C12">
-        <v>1.318124505941796</v>
+        <v>0.7297071788070468</v>
       </c>
       <c r="D12">
-        <v>0.01422310937917892</v>
+        <v>0.01540451659504427</v>
       </c>
       <c r="E12">
-        <v>0.2223139346355509</v>
+        <v>0.02077870816202854</v>
       </c>
       <c r="F12">
-        <v>4.159224314132587</v>
+        <v>3.830836480526358</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.132130064926073</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1821518846026819</v>
+        <v>0.05554911756943426</v>
       </c>
       <c r="K12">
-        <v>1.263357883415267</v>
+        <v>1.228123326475483</v>
       </c>
       <c r="L12">
-        <v>0.5554572166047933</v>
+        <v>0.2216561460008251</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.8012121866627453</v>
+      </c>
+      <c r="N12">
+        <v>1.983048872761074</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.180612016167572</v>
+        <v>4.979864839354661</v>
       </c>
       <c r="C13">
-        <v>1.309980047761428</v>
+        <v>0.7253088428732894</v>
       </c>
       <c r="D13">
-        <v>0.01424939622250676</v>
+        <v>0.01529617728309418</v>
       </c>
       <c r="E13">
-        <v>0.2209522131502339</v>
+        <v>0.02075230221095747</v>
       </c>
       <c r="F13">
-        <v>4.136360247635196</v>
+        <v>3.817285164683227</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.121416175707552</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1810542470642211</v>
+        <v>0.05560312908079812</v>
       </c>
       <c r="K13">
-        <v>1.255679774667584</v>
+        <v>1.22124710333766</v>
       </c>
       <c r="L13">
-        <v>0.5520228647270002</v>
+        <v>0.2207312786265163</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.7970537055776745</v>
+      </c>
+      <c r="N13">
+        <v>1.983794325889534</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.09808072414512</v>
+        <v>4.892118475395137</v>
       </c>
       <c r="C14">
-        <v>1.283523117739378</v>
+        <v>0.7110109349495133</v>
       </c>
       <c r="D14">
-        <v>0.01433634310085807</v>
+        <v>0.01494591504865639</v>
       </c>
       <c r="E14">
-        <v>0.2165302896532424</v>
+        <v>0.02066666037028853</v>
       </c>
       <c r="F14">
-        <v>4.062192049280725</v>
+        <v>3.77335137860365</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.086683525639998</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1774924635868693</v>
+        <v>0.05577969566232444</v>
       </c>
       <c r="K14">
-        <v>1.230728247466686</v>
+        <v>1.198897770166809</v>
       </c>
       <c r="L14">
-        <v>0.5408686564857064</v>
+        <v>0.2177267281858946</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.7835394238059976</v>
+      </c>
+      <c r="N14">
+        <v>1.986318658698139</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.047738019048381</v>
+        <v>4.83859891863051</v>
       </c>
       <c r="C15">
-        <v>1.26739533760923</v>
+        <v>0.7022876260354849</v>
       </c>
       <c r="D15">
-        <v>0.01439051436541305</v>
+        <v>0.01473366229519257</v>
       </c>
       <c r="E15">
-        <v>0.2138359478932728</v>
+        <v>0.02061455704484239</v>
       </c>
       <c r="F15">
-        <v>4.017059790931086</v>
+        <v>3.746637020023712</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.065564884314384</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.175324165453862</v>
+        <v>0.0558881740112156</v>
       </c>
       <c r="K15">
-        <v>1.215511006595349</v>
+        <v>1.185265020206117</v>
       </c>
       <c r="L15">
-        <v>0.534070842105038</v>
+        <v>0.2158951504716669</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.7752972859678451</v>
+      </c>
+      <c r="N15">
+        <v>1.987935571719163</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.76225499308282</v>
+        <v>4.535207370396733</v>
       </c>
       <c r="C16">
-        <v>1.176087794681905</v>
+        <v>0.652796247159074</v>
       </c>
       <c r="D16">
-        <v>0.0147140324577606</v>
+        <v>0.01355028450812767</v>
       </c>
       <c r="E16">
-        <v>0.1985999928111397</v>
+        <v>0.02032104627744191</v>
       </c>
       <c r="F16">
-        <v>3.762723271153476</v>
+        <v>3.596420391785102</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.946797913809746</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1630912098316379</v>
+        <v>0.05651485779495147</v>
       </c>
       <c r="K16">
-        <v>1.129256737423276</v>
+        <v>1.107966003192118</v>
       </c>
       <c r="L16">
-        <v>0.4956096381505688</v>
+        <v>0.2055279298881203</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7285851359303805</v>
+      </c>
+      <c r="N16">
+        <v>1.998246321004757</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.589591489290171</v>
+        <v>4.351849194228407</v>
       </c>
       <c r="C17">
-        <v>1.120986696209627</v>
+        <v>0.6228469043144855</v>
       </c>
       <c r="D17">
-        <v>0.01492324043026905</v>
+        <v>0.01285147244290386</v>
       </c>
       <c r="E17">
-        <v>0.1894214492695241</v>
+        <v>0.02014513725224543</v>
       </c>
       <c r="F17">
-        <v>3.610255957093216</v>
+        <v>3.506688283796763</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.875809560569195</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1557456228897962</v>
+        <v>0.0569038440073939</v>
       </c>
       <c r="K17">
-        <v>1.077121575376268</v>
+        <v>1.061232929384673</v>
       </c>
       <c r="L17">
-        <v>0.4724212411658542</v>
+        <v>0.1992766661324623</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7003641129499911</v>
+      </c>
+      <c r="N17">
+        <v>2.005463989839953</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.491107490804382</v>
+        <v>4.247330370085308</v>
       </c>
       <c r="C18">
-        <v>1.089599237917326</v>
+        <v>0.6057598983816206</v>
       </c>
       <c r="D18">
-        <v>0.01504717264878686</v>
+        <v>0.01245866543416341</v>
       </c>
       <c r="E18">
-        <v>0.1841987682585327</v>
+        <v>0.02004534355191057</v>
       </c>
       <c r="F18">
-        <v>3.523765875174604</v>
+        <v>3.455912596801795</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.835613752262091</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1515741805807842</v>
+        <v>0.05712926107076655</v>
       </c>
       <c r="K18">
-        <v>1.047395546148536</v>
+        <v>1.034587532273221</v>
       </c>
       <c r="L18">
-        <v>0.4592201898439257</v>
+        <v>0.1957186810160962</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.6842812147027573</v>
+      </c>
+      <c r="N18">
+        <v>2.009928225015713</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.457897386081299</v>
+        <v>4.212097748901101</v>
       </c>
       <c r="C19">
-        <v>1.079021690157703</v>
+        <v>0.5999972983627515</v>
       </c>
       <c r="D19">
-        <v>0.01508972188402247</v>
+        <v>0.01232715982397181</v>
       </c>
       <c r="E19">
-        <v>0.1824397041626611</v>
+        <v>0.02001178028568695</v>
       </c>
       <c r="F19">
-        <v>3.494679531725154</v>
+        <v>3.438859499871597</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.822108423026577</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1501705622189995</v>
+        <v>0.05720587381258779</v>
       </c>
       <c r="K19">
-        <v>1.037373312748585</v>
+        <v>1.025604422761162</v>
       </c>
       <c r="L19">
-        <v>0.4547727833565247</v>
+        <v>0.1945202474340206</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.678860438545648</v>
+      </c>
+      <c r="N19">
+        <v>2.011492097450045</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.607884427949614</v>
+        <v>4.371268734439298</v>
       </c>
       <c r="C20">
-        <v>1.126820055721339</v>
+        <v>0.6260204014418491</v>
       </c>
       <c r="D20">
-        <v>0.01490058975335273</v>
+        <v>0.01292489877132041</v>
       </c>
       <c r="E20">
-        <v>0.1903925521374958</v>
+        <v>0.02016371673114215</v>
       </c>
       <c r="F20">
-        <v>3.626359408115633</v>
+        <v>3.516152739105905</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.883299545983306</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1565219262814068</v>
+        <v>0.05686226197295685</v>
       </c>
       <c r="K20">
-        <v>1.082643914224306</v>
+        <v>1.066183102305075</v>
       </c>
       <c r="L20">
-        <v>0.4748752974455286</v>
+        <v>0.1999381831709997</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7033526211191941</v>
+      </c>
+      <c r="N20">
+        <v>2.004662951414844</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.122277862715123</v>
+        <v>4.917843826032481</v>
       </c>
       <c r="C21">
-        <v>1.291277738861083</v>
+        <v>0.7152032945359963</v>
       </c>
       <c r="D21">
-        <v>0.01431061196148242</v>
+        <v>0.01504831229229708</v>
       </c>
       <c r="E21">
-        <v>0.2178261197954257</v>
+        <v>0.02069174061529822</v>
       </c>
       <c r="F21">
-        <v>4.083914300469587</v>
+        <v>3.786214539284089</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.096852473679618</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1785358224206313</v>
+        <v>0.0557277658864832</v>
       </c>
       <c r="K21">
-        <v>1.23804313638216</v>
+        <v>1.205450345942637</v>
       </c>
       <c r="L21">
-        <v>0.5441376524310471</v>
+        <v>0.2186073895779117</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7875013774245048</v>
+      </c>
+      <c r="N21">
+        <v>1.985562375034931</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.467644014461541</v>
+        <v>5.285053676110351</v>
       </c>
       <c r="C22">
-        <v>1.402160938008763</v>
+        <v>0.7750028094085906</v>
       </c>
       <c r="D22">
-        <v>0.01396496564034777</v>
+        <v>0.01653637283640919</v>
       </c>
       <c r="E22">
-        <v>0.2363772196920095</v>
+        <v>0.02105232425801296</v>
       </c>
       <c r="F22">
-        <v>4.396001116681191</v>
+        <v>3.971355564507462</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.243262508967632</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1935093445592457</v>
+        <v>0.05500095032611174</v>
       </c>
       <c r="K22">
-        <v>1.342501798470096</v>
+        <v>1.298963920338707</v>
       </c>
       <c r="L22">
-        <v>0.5909109601798619</v>
+        <v>0.2311959737974973</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8440674902639174</v>
+      </c>
+      <c r="N22">
+        <v>1.976201130722302</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.282379323759756</v>
+        <v>5.088069852832575</v>
       </c>
       <c r="C23">
-        <v>1.342632978447</v>
+        <v>0.7429338126947584</v>
       </c>
       <c r="D23">
-        <v>0.01414536223613538</v>
+        <v>0.01573198732245018</v>
       </c>
       <c r="E23">
-        <v>0.2264129987268504</v>
+        <v>0.02085828886502572</v>
       </c>
       <c r="F23">
-        <v>4.228117522718236</v>
+        <v>3.871689229315194</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.164431692464518</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1854582399296021</v>
+        <v>0.05538754283684977</v>
       </c>
       <c r="K23">
-        <v>1.286454685310787</v>
+        <v>1.248804382411919</v>
       </c>
       <c r="L23">
-        <v>0.5657937672385813</v>
+        <v>0.2244390417222775</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.813720777833467</v>
+      </c>
+      <c r="N23">
+        <v>1.980894126248856</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.59961177187148</v>
+        <v>4.362486385535817</v>
       </c>
       <c r="C24">
-        <v>1.124181894934623</v>
+        <v>0.6245852574194544</v>
       </c>
       <c r="D24">
-        <v>0.01491081881894551</v>
+        <v>0.01289167505225208</v>
       </c>
       <c r="E24">
-        <v>0.1899533489862364</v>
+        <v>0.02015531281189453</v>
       </c>
       <c r="F24">
-        <v>3.619075432192915</v>
+        <v>3.51187134079052</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.879911416257414</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1561707998339799</v>
+        <v>0.05688105565131174</v>
       </c>
       <c r="K24">
-        <v>1.080146500959756</v>
+        <v>1.06394444175605</v>
       </c>
       <c r="L24">
-        <v>0.4737654159067972</v>
+        <v>0.1996389998998538</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7020010776435797</v>
+      </c>
+      <c r="N24">
+        <v>2.005024124225741</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.894038297988629</v>
+        <v>3.615221790957207</v>
       </c>
       <c r="C25">
-        <v>0.8999431781108171</v>
+        <v>0.502124974512725</v>
       </c>
       <c r="D25">
-        <v>0.0158713077298529</v>
+        <v>0.01016922314638791</v>
       </c>
       <c r="E25">
-        <v>0.1527409301773872</v>
+        <v>0.01944869453339182</v>
       </c>
       <c r="F25">
-        <v>3.007255878179677</v>
+        <v>3.155182956156267</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.59679734881469</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1265826479776671</v>
+        <v>0.05855654657466669</v>
       </c>
       <c r="K25">
-        <v>0.8673460925817693</v>
+        <v>0.8733197283516603</v>
       </c>
       <c r="L25">
-        <v>0.3795909988755497</v>
+        <v>0.1743016004861602</v>
       </c>
       <c r="M25">
+        <v>0.5870869113050077</v>
+      </c>
+      <c r="N25">
+        <v>2.042866802075039</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_3/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.088189181434586</v>
+        <v>3.28437082402462</v>
       </c>
       <c r="C2">
-        <v>0.4151783716840498</v>
+        <v>0.7878977319863907</v>
       </c>
       <c r="D2">
-        <v>0.00837503406409823</v>
+        <v>0.009766421664664904</v>
       </c>
       <c r="E2">
-        <v>0.01895908513058586</v>
+        <v>0.02349842073054109</v>
       </c>
       <c r="F2">
-        <v>2.914143052642899</v>
+        <v>2.242453695160876</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.186746498543336</v>
       </c>
       <c r="J2">
-        <v>0.05984755575203593</v>
+        <v>0.05041770193061801</v>
       </c>
       <c r="K2">
-        <v>0.7386428146213575</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1566195694084982</v>
+        <v>0.2253541765137044</v>
       </c>
       <c r="M2">
-        <v>0.5061750556185558</v>
+        <v>0.5711364041452001</v>
       </c>
       <c r="N2">
-        <v>2.079390098390817</v>
+        <v>1.24883095498091</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.742378543062841</v>
+        <v>2.88297931072259</v>
       </c>
       <c r="C3">
-        <v>0.3577339669868138</v>
+        <v>0.6811426203690019</v>
       </c>
       <c r="D3">
-        <v>0.007255975281555749</v>
+        <v>0.008194885382252437</v>
       </c>
       <c r="E3">
-        <v>0.01864078381586731</v>
+        <v>0.02244604017926566</v>
       </c>
       <c r="F3">
-        <v>2.761938841231</v>
+        <v>2.118075531532227</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.144480394757046</v>
       </c>
       <c r="J3">
-        <v>0.0607591134354486</v>
+        <v>0.05036002219277957</v>
       </c>
       <c r="K3">
-        <v>0.6501192447532844</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1451405553069236</v>
+        <v>0.20774516286086</v>
       </c>
       <c r="M3">
-        <v>0.4531742960328131</v>
+        <v>0.506070632818151</v>
       </c>
       <c r="N3">
-        <v>2.10890925258262</v>
+        <v>1.308836862773497</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.534758667832534</v>
+        <v>2.640574912950399</v>
       </c>
       <c r="C4">
-        <v>0.3230403606370373</v>
+        <v>0.6166566079623976</v>
       </c>
       <c r="D4">
-        <v>0.006606925001239716</v>
+        <v>0.007274180815510789</v>
       </c>
       <c r="E4">
-        <v>0.01845043109007749</v>
+        <v>0.02180650364768422</v>
       </c>
       <c r="F4">
-        <v>2.673313266845412</v>
+        <v>2.04608634655979</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.120896917935191</v>
       </c>
       <c r="J4">
-        <v>0.06133713593866119</v>
+        <v>0.0503315673418987</v>
       </c>
       <c r="K4">
-        <v>0.5968909358098173</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1383111825682377</v>
+        <v>0.197237596587243</v>
       </c>
       <c r="M4">
-        <v>0.4213989670055653</v>
+        <v>0.4668563491942592</v>
       </c>
       <c r="N4">
-        <v>2.129201535438227</v>
+        <v>1.347417447853424</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.451215503272181</v>
+        <v>2.542697251813934</v>
       </c>
       <c r="C5">
-        <v>0.309027160027</v>
+        <v>0.5906091833914786</v>
       </c>
       <c r="D5">
-        <v>0.00635070144683425</v>
+        <v>0.006908462021925743</v>
       </c>
       <c r="E5">
-        <v>0.01837393035351664</v>
+        <v>0.02154708550779283</v>
       </c>
       <c r="F5">
-        <v>2.638321024727006</v>
+        <v>2.017769978007649</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.111841769584622</v>
       </c>
       <c r="J5">
-        <v>0.06157732539624439</v>
+        <v>0.05032165081921391</v>
       </c>
       <c r="K5">
-        <v>0.5754520527572708</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1355791473537309</v>
+        <v>0.1930263612070888</v>
       </c>
       <c r="M5">
-        <v>0.4086247553558806</v>
+        <v>0.4510422679733708</v>
       </c>
       <c r="N5">
-        <v>2.137990781424136</v>
+        <v>1.36356102431084</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.437404120040981</v>
+        <v>2.526496160151908</v>
       </c>
       <c r="C6">
-        <v>0.3067072443986945</v>
+        <v>0.5862969929644066</v>
       </c>
       <c r="D6">
-        <v>0.006308619475685617</v>
+        <v>0.006848261699076374</v>
       </c>
       <c r="E6">
-        <v>0.01836128633125034</v>
+        <v>0.02150406877611566</v>
       </c>
       <c r="F6">
-        <v>2.632575922286705</v>
+        <v>2.013127396658419</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.110370592106392</v>
       </c>
       <c r="J6">
-        <v>0.06161748989378513</v>
+        <v>0.0503201036575236</v>
       </c>
       <c r="K6">
-        <v>0.5719065099455989</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1351284629007381</v>
+        <v>0.1923311947173758</v>
       </c>
       <c r="M6">
-        <v>0.4065136339297126</v>
+        <v>0.4484258505660179</v>
       </c>
       <c r="N6">
-        <v>2.139480940711138</v>
+        <v>1.366266703888016</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.533627821360199</v>
+        <v>2.639251385099499</v>
       </c>
       <c r="C7">
-        <v>0.3228508945730084</v>
+        <v>0.6163044327780085</v>
       </c>
       <c r="D7">
-        <v>0.006603437626989006</v>
+        <v>0.007269212303970818</v>
       </c>
       <c r="E7">
-        <v>0.01844939530552892</v>
+        <v>0.02180300078176955</v>
       </c>
       <c r="F7">
-        <v>2.672836915357536</v>
+        <v>2.045700436069851</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.120772599458526</v>
       </c>
       <c r="J7">
-        <v>0.06134035638513646</v>
+        <v>0.05033142689438552</v>
       </c>
       <c r="K7">
-        <v>0.5966008219543326</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1382741360223108</v>
+        <v>0.1971805236334561</v>
       </c>
       <c r="M7">
-        <v>0.4212260063495279</v>
+        <v>0.4666424267871818</v>
       </c>
       <c r="N7">
-        <v>2.129317996520072</v>
+        <v>1.347633477420032</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.967900542948598</v>
+        <v>3.145058118386487</v>
       </c>
       <c r="C8">
-        <v>0.39523879798395</v>
+        <v>0.7508455813604087</v>
       </c>
       <c r="D8">
-        <v>0.007980462089310691</v>
+        <v>0.009214338957708179</v>
       </c>
       <c r="E8">
-        <v>0.01884814663848067</v>
+        <v>0.02313388799932969</v>
       </c>
       <c r="F8">
-        <v>2.860603929760956</v>
+        <v>2.198608073652608</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.171656477950883</v>
       </c>
       <c r="J8">
-        <v>0.06015807875439361</v>
+        <v>0.05039632387055804</v>
       </c>
       <c r="K8">
-        <v>0.7078668498915803</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.152613667288712</v>
+        <v>0.2192157199223459</v>
       </c>
       <c r="M8">
-        <v>0.487729533383586</v>
+        <v>0.5485369034891079</v>
       </c>
       <c r="N8">
-        <v>2.089102738879106</v>
+        <v>1.269151115366057</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.862891577280607</v>
+        <v>4.17480990429209</v>
       </c>
       <c r="C9">
-        <v>0.5427989240654369</v>
+        <v>1.024899782974501</v>
       </c>
       <c r="D9">
-        <v>0.011048565748073</v>
+        <v>0.01346249736637617</v>
       </c>
       <c r="E9">
-        <v>0.01968112561574697</v>
+        <v>0.02582003082482132</v>
       </c>
       <c r="F9">
-        <v>3.271645212573929</v>
+        <v>2.537249937959643</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.29221981894834</v>
       </c>
       <c r="J9">
-        <v>0.05798336498367895</v>
+        <v>0.05058249478890353</v>
       </c>
       <c r="K9">
-        <v>0.9365347215681936</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1826703618262897</v>
+        <v>0.2651343845568022</v>
       </c>
       <c r="M9">
-        <v>0.6251528464796152</v>
+        <v>0.7159265340193173</v>
       </c>
       <c r="N9">
-        <v>2.028681994112716</v>
+        <v>1.129768355549373</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.556262787299772</v>
+        <v>4.96333938089191</v>
       </c>
       <c r="C10">
-        <v>0.6562333953844757</v>
+        <v>1.235269384865376</v>
       </c>
       <c r="D10">
-        <v>0.01363132106614984</v>
+        <v>0.01697879572186878</v>
       </c>
       <c r="E10">
-        <v>0.02034131627238978</v>
+        <v>0.02787747687112141</v>
       </c>
       <c r="F10">
-        <v>3.60677653167653</v>
+        <v>2.815954305346338</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.396545368780835</v>
       </c>
       <c r="J10">
-        <v>0.05647069863337828</v>
+        <v>0.05076113861785281</v>
       </c>
       <c r="K10">
-        <v>1.113331615554799</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2062465024189208</v>
+        <v>0.3009745227206082</v>
       </c>
       <c r="M10">
-        <v>0.7318263274571777</v>
+        <v>0.8445288122093615</v>
       </c>
       <c r="N10">
-        <v>1.997466195855296</v>
+        <v>1.037357898079939</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.881870551112684</v>
+        <v>5.331264393530432</v>
       </c>
       <c r="C11">
-        <v>0.7093407474985725</v>
+        <v>1.333645053456792</v>
       </c>
       <c r="D11">
-        <v>0.01490519168995874</v>
+        <v>0.01869848477173264</v>
       </c>
       <c r="E11">
-        <v>0.02065667588933007</v>
+        <v>0.0288414906849761</v>
       </c>
       <c r="F11">
-        <v>3.768231245656352</v>
+        <v>2.950829566917946</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.448208940213959</v>
       </c>
       <c r="J11">
-        <v>0.05580042066159896</v>
+        <v>0.05085310214364114</v>
       </c>
       <c r="K11">
-        <v>1.196287438209353</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2173759578419947</v>
+        <v>0.3178508697168496</v>
       </c>
       <c r="M11">
-        <v>0.7819611779070428</v>
+        <v>0.9046298166760351</v>
       </c>
       <c r="N11">
-        <v>1.986623702116901</v>
+        <v>0.9977804765182299</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.006863502611168</v>
+        <v>5.472127748639878</v>
       </c>
       <c r="C12">
-        <v>0.7297071788070468</v>
+        <v>1.371350456940547</v>
       </c>
       <c r="D12">
-        <v>0.01540451659504427</v>
+        <v>0.01937030416727836</v>
       </c>
       <c r="E12">
-        <v>0.02077870816202854</v>
+        <v>0.02921153057097214</v>
       </c>
       <c r="F12">
-        <v>3.830836480526358</v>
+        <v>3.003218389869659</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.468452018651348</v>
       </c>
       <c r="J12">
-        <v>0.05554911756943426</v>
+        <v>0.05088962463812408</v>
       </c>
       <c r="K12">
-        <v>1.228123326475483</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2216561460008251</v>
+        <v>0.3243346921692165</v>
       </c>
       <c r="M12">
-        <v>0.8012121866627453</v>
+        <v>0.9276540459085325</v>
       </c>
       <c r="N12">
-        <v>1.983048872761074</v>
+        <v>0.9831756804355152</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.979864839354661</v>
+        <v>5.441718232089784</v>
       </c>
       <c r="C13">
-        <v>0.7253088428732894</v>
+        <v>1.3632086211162</v>
       </c>
       <c r="D13">
-        <v>0.01529617728309418</v>
+        <v>0.01922464086358389</v>
       </c>
       <c r="E13">
-        <v>0.02075230221095747</v>
+        <v>0.02913159734466841</v>
       </c>
       <c r="F13">
-        <v>3.817285164683227</v>
+        <v>2.991874453027521</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.464060816892527</v>
       </c>
       <c r="J13">
-        <v>0.05560312908079812</v>
+        <v>0.05088168053125131</v>
       </c>
       <c r="K13">
-        <v>1.22124710333766</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2207312786265163</v>
+        <v>0.3229339577679156</v>
       </c>
       <c r="M13">
-        <v>0.7970537055776745</v>
+        <v>0.9226829587440335</v>
       </c>
       <c r="N13">
-        <v>1.983794325889534</v>
+        <v>0.9863035887989824</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.892118475395137</v>
+        <v>5.342821170036416</v>
       </c>
       <c r="C14">
-        <v>0.7110109349495133</v>
+        <v>1.336737609279396</v>
       </c>
       <c r="D14">
-        <v>0.01494591504865639</v>
+        <v>0.01875332186128276</v>
       </c>
       <c r="E14">
-        <v>0.02066666037028853</v>
+        <v>0.02887182816348233</v>
       </c>
       <c r="F14">
-        <v>3.77335137860365</v>
+        <v>2.95511235146995</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.449860278806071</v>
       </c>
       <c r="J14">
-        <v>0.05577969566232444</v>
+        <v>0.05085607183659846</v>
       </c>
       <c r="K14">
-        <v>1.198897770166809</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2177267281858946</v>
+        <v>0.3183823650439876</v>
       </c>
       <c r="M14">
-        <v>0.7835394238059976</v>
+        <v>0.9065184994806756</v>
       </c>
       <c r="N14">
-        <v>1.986318658698139</v>
+        <v>0.9965710930199094</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.83859891863051</v>
+        <v>5.282450923170643</v>
       </c>
       <c r="C15">
-        <v>0.7022876260354849</v>
+        <v>1.320584455425774</v>
       </c>
       <c r="D15">
-        <v>0.01473366229519257</v>
+        <v>0.01846741667331742</v>
       </c>
       <c r="E15">
-        <v>0.02061455704484239</v>
+        <v>0.02871339231178638</v>
       </c>
       <c r="F15">
-        <v>3.746637020023712</v>
+        <v>2.932770484751785</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.441252858208543</v>
       </c>
       <c r="J15">
-        <v>0.0558881740112156</v>
+        <v>0.05084061206316726</v>
       </c>
       <c r="K15">
-        <v>1.185265020206117</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2158951504716669</v>
+        <v>0.3156068519704291</v>
       </c>
       <c r="M15">
-        <v>0.7752972859678451</v>
+        <v>0.89665297079776</v>
       </c>
       <c r="N15">
-        <v>1.987935571719163</v>
+        <v>1.002910930928039</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.535207370396733</v>
+        <v>4.939497709328123</v>
       </c>
       <c r="C16">
-        <v>0.652796247159074</v>
+        <v>1.228899774216245</v>
       </c>
       <c r="D16">
-        <v>0.01355028450812767</v>
+        <v>0.016869101741257</v>
       </c>
       <c r="E16">
-        <v>0.02032104627744191</v>
+        <v>0.02781511953047033</v>
       </c>
       <c r="F16">
-        <v>3.596420391785102</v>
+        <v>2.807315200089675</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.393259818667488</v>
       </c>
       <c r="J16">
-        <v>0.05651485779495147</v>
+        <v>0.0507553569220569</v>
       </c>
       <c r="K16">
-        <v>1.107966003192118</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2055279298881203</v>
+        <v>0.2998840274370451</v>
       </c>
       <c r="M16">
-        <v>0.7285851359303805</v>
+        <v>0.8406361736508359</v>
       </c>
       <c r="N16">
-        <v>1.998246321004757</v>
+        <v>1.039996244217065</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.351849194228407</v>
+        <v>4.731611524781442</v>
       </c>
       <c r="C17">
-        <v>0.6228469043144855</v>
+        <v>1.173385505280578</v>
       </c>
       <c r="D17">
-        <v>0.01285147244290386</v>
+        <v>0.0159215819667935</v>
       </c>
       <c r="E17">
-        <v>0.02014513725224543</v>
+        <v>0.02727188431247374</v>
       </c>
       <c r="F17">
-        <v>3.506688283796763</v>
+        <v>2.732526619782291</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.364944959570479</v>
       </c>
       <c r="J17">
-        <v>0.0569038440073939</v>
+        <v>0.05070590139687603</v>
       </c>
       <c r="K17">
-        <v>1.061232929384673</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1992766661324623</v>
+        <v>0.2903924981366259</v>
       </c>
       <c r="M17">
-        <v>0.7003641129499911</v>
+        <v>0.8067051015970819</v>
       </c>
       <c r="N17">
-        <v>2.005463989839953</v>
+        <v>1.063396279156208</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.247330370085308</v>
+        <v>4.612894490521285</v>
       </c>
       <c r="C18">
-        <v>0.6057598983816206</v>
+        <v>1.141702667912739</v>
       </c>
       <c r="D18">
-        <v>0.01245866543416341</v>
+        <v>0.01538767318121614</v>
       </c>
       <c r="E18">
-        <v>0.02004534355191057</v>
+        <v>0.02696200763866763</v>
       </c>
       <c r="F18">
-        <v>3.455912596801795</v>
+        <v>2.690261745820195</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.349049872805494</v>
       </c>
       <c r="J18">
-        <v>0.05712926107076655</v>
+        <v>0.0506784518643375</v>
       </c>
       <c r="K18">
-        <v>1.034587532273221</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1957186810160962</v>
+        <v>0.284986389891543</v>
       </c>
       <c r="M18">
-        <v>0.6842812147027573</v>
+        <v>0.7873370198857685</v>
       </c>
       <c r="N18">
-        <v>2.009928225015713</v>
+        <v>1.077085059817065</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.212097748901101</v>
+        <v>4.572839484628332</v>
       </c>
       <c r="C19">
-        <v>0.5999972983627515</v>
+        <v>1.13101598545893</v>
       </c>
       <c r="D19">
-        <v>0.01232715982397181</v>
+        <v>0.01520870947920017</v>
       </c>
       <c r="E19">
-        <v>0.02001178028568695</v>
+        <v>0.02685750459831038</v>
       </c>
       <c r="F19">
-        <v>3.438859499871597</v>
+        <v>2.676076354658022</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.343733076606497</v>
       </c>
       <c r="J19">
-        <v>0.05720587381258779</v>
+        <v>0.05066932452241524</v>
       </c>
       <c r="K19">
-        <v>1.025604422761162</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1945202474340206</v>
+        <v>0.2831647978077996</v>
       </c>
       <c r="M19">
-        <v>0.678860438545648</v>
+        <v>0.7808037605761982</v>
       </c>
       <c r="N19">
-        <v>2.011492097450045</v>
+        <v>1.0817584850383</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.371268734439298</v>
+        <v>4.753651561483593</v>
       </c>
       <c r="C20">
-        <v>0.6260204014418491</v>
+        <v>1.17926901505723</v>
       </c>
       <c r="D20">
-        <v>0.01292489877132041</v>
+        <v>0.01602127766613393</v>
       </c>
       <c r="E20">
-        <v>0.02016371673114215</v>
+        <v>0.02732943935748011</v>
       </c>
       <c r="F20">
-        <v>3.516152739105905</v>
+        <v>2.740409174422297</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.36791815993351</v>
       </c>
       <c r="J20">
-        <v>0.05686226197295685</v>
+        <v>0.05071106186560748</v>
       </c>
       <c r="K20">
-        <v>1.066183102305075</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1999381831709997</v>
+        <v>0.2913973107676355</v>
       </c>
       <c r="M20">
-        <v>0.7033526211191941</v>
+        <v>0.8103015442736918</v>
       </c>
       <c r="N20">
-        <v>2.004662951414844</v>
+        <v>1.060881337230768</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.917843826032481</v>
+        <v>5.371826066982635</v>
       </c>
       <c r="C21">
-        <v>0.7152032945359963</v>
+        <v>1.344499919783459</v>
       </c>
       <c r="D21">
-        <v>0.01504831229229708</v>
+        <v>0.01889117132480678</v>
       </c>
       <c r="E21">
-        <v>0.02069174061529822</v>
+        <v>0.02894798500444917</v>
       </c>
       <c r="F21">
-        <v>3.786214539284089</v>
+        <v>2.965873301237622</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.454012248384828</v>
       </c>
       <c r="J21">
-        <v>0.0557277658864832</v>
+        <v>0.05086354625001555</v>
       </c>
       <c r="K21">
-        <v>1.205450345942637</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2186073895779117</v>
+        <v>0.3197166585270423</v>
       </c>
       <c r="M21">
-        <v>0.7875013774245048</v>
+        <v>0.9112588903136043</v>
       </c>
       <c r="N21">
-        <v>1.985562375034931</v>
+        <v>0.9935446573422198</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.285053676110351</v>
+        <v>5.784922435446219</v>
       </c>
       <c r="C22">
-        <v>0.7750028094085906</v>
+        <v>1.455164244981574</v>
       </c>
       <c r="D22">
-        <v>0.01653637283640919</v>
+        <v>0.02088885661720141</v>
       </c>
       <c r="E22">
-        <v>0.02105232425801296</v>
+        <v>0.03003542192922026</v>
       </c>
       <c r="F22">
-        <v>3.971355564507462</v>
+        <v>3.120973011841329</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.514280096255177</v>
       </c>
       <c r="J22">
-        <v>0.05500095032611174</v>
+        <v>0.05097319388485744</v>
       </c>
       <c r="K22">
-        <v>1.298963920338707</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2311959737974973</v>
+        <v>0.3387737252800918</v>
       </c>
       <c r="M22">
-        <v>0.8440674902639174</v>
+        <v>0.9788062547569183</v>
       </c>
       <c r="N22">
-        <v>1.976201130722302</v>
+        <v>0.9517805806883644</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.088069852832575</v>
+        <v>5.563536775148975</v>
       </c>
       <c r="C23">
-        <v>0.7429338126947584</v>
+        <v>1.395831057062821</v>
       </c>
       <c r="D23">
-        <v>0.01573198732245018</v>
+        <v>0.01981025508225898</v>
       </c>
       <c r="E23">
-        <v>0.02085828886502572</v>
+        <v>0.02945197418836365</v>
       </c>
       <c r="F23">
-        <v>3.871689229315194</v>
+        <v>3.037429744025815</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.48172089808493</v>
       </c>
       <c r="J23">
-        <v>0.05538754283684977</v>
+        <v>0.0509136990572685</v>
       </c>
       <c r="K23">
-        <v>1.248804382411919</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2244390417222775</v>
+        <v>0.3285484850676283</v>
       </c>
       <c r="M23">
-        <v>0.813720777833467</v>
+        <v>0.9425988440331707</v>
       </c>
       <c r="N23">
-        <v>1.980894126248856</v>
+        <v>0.9738551194733489</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.362486385535817</v>
+        <v>4.743684786344545</v>
       </c>
       <c r="C24">
-        <v>0.6245852574194544</v>
+        <v>1.176608359374313</v>
       </c>
       <c r="D24">
-        <v>0.01289167505225208</v>
+        <v>0.01597617174432386</v>
       </c>
       <c r="E24">
-        <v>0.02015531281189453</v>
+        <v>0.0273034112026096</v>
       </c>
       <c r="F24">
-        <v>3.51187134079052</v>
+        <v>2.736843202389764</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.366572787037825</v>
       </c>
       <c r="J24">
-        <v>0.05688105565131174</v>
+        <v>0.05070872576727936</v>
       </c>
       <c r="K24">
-        <v>1.06394444175605</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1996389998998538</v>
+        <v>0.2909428778622356</v>
       </c>
       <c r="M24">
-        <v>0.7020010776435797</v>
+        <v>0.8086751611301395</v>
       </c>
       <c r="N24">
-        <v>2.005024124225741</v>
+        <v>1.062017610155976</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.615221790957207</v>
+        <v>3.891319692098023</v>
       </c>
       <c r="C25">
-        <v>0.502124974512725</v>
+        <v>0.9493968247019779</v>
       </c>
       <c r="D25">
-        <v>0.01016922314638791</v>
+        <v>0.01225430055178833</v>
       </c>
       <c r="E25">
-        <v>0.01944869453339182</v>
+        <v>0.02508160638942236</v>
       </c>
       <c r="F25">
-        <v>3.155182956156267</v>
+        <v>2.440879464539137</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.257081292640763</v>
       </c>
       <c r="J25">
-        <v>0.05855654657466669</v>
+        <v>0.05052526071622232</v>
       </c>
       <c r="K25">
-        <v>0.8733197283516603</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1743016004861602</v>
+        <v>0.2523783485983131</v>
       </c>
       <c r="M25">
-        <v>0.5870869113050077</v>
+        <v>0.6697724237178662</v>
       </c>
       <c r="N25">
-        <v>2.042866802075039</v>
+        <v>1.165810318456991</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_3/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.28437082402462</v>
+        <v>2.767168770399508</v>
       </c>
       <c r="C2">
-        <v>0.7878977319863907</v>
+        <v>0.3573878827432679</v>
       </c>
       <c r="D2">
-        <v>0.009766421664664904</v>
+        <v>0.009189471803441762</v>
       </c>
       <c r="E2">
-        <v>0.02349842073054109</v>
+        <v>0.04535142159914773</v>
       </c>
       <c r="F2">
-        <v>2.242453695160876</v>
+        <v>3.696417607249984</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>1.186746498543336</v>
+        <v>2.157564468342606</v>
       </c>
       <c r="J2">
-        <v>0.05041770193061801</v>
+        <v>0.1037402433238022</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2253541765137044</v>
+        <v>0.3924357081747871</v>
       </c>
       <c r="M2">
-        <v>0.5711364041452001</v>
+        <v>0.590738048185024</v>
       </c>
       <c r="N2">
-        <v>1.24883095498091</v>
+        <v>2.567041630754645</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.88297931072259</v>
+        <v>2.67863130748259</v>
       </c>
       <c r="C3">
-        <v>0.6811426203690019</v>
+        <v>0.3305849875993658</v>
       </c>
       <c r="D3">
-        <v>0.008194885382252437</v>
+        <v>0.008639454830692728</v>
       </c>
       <c r="E3">
-        <v>0.02244604017926566</v>
+        <v>0.04498765152501871</v>
       </c>
       <c r="F3">
-        <v>2.118075531532227</v>
+        <v>3.688666605529122</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>1.144480394757046</v>
+        <v>2.160225284905664</v>
       </c>
       <c r="J3">
-        <v>0.05036002219277957</v>
+        <v>0.1037164097846137</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.20774516286086</v>
+        <v>0.390246473843284</v>
       </c>
       <c r="M3">
-        <v>0.506070632818151</v>
+        <v>0.5774678069624812</v>
       </c>
       <c r="N3">
-        <v>1.308836862773497</v>
+        <v>2.590871131174303</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.640574912950399</v>
+        <v>2.625770047447702</v>
       </c>
       <c r="C4">
-        <v>0.6166566079623976</v>
+        <v>0.3143289265103419</v>
       </c>
       <c r="D4">
-        <v>0.007274180815510789</v>
+        <v>0.008297585275904851</v>
       </c>
       <c r="E4">
-        <v>0.02180650364768422</v>
+        <v>0.04475934156084893</v>
       </c>
       <c r="F4">
-        <v>2.04608634655979</v>
+        <v>3.685739604632175</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>1.120896917935191</v>
+        <v>2.162872607125486</v>
       </c>
       <c r="J4">
-        <v>0.0503315673418987</v>
+        <v>0.1037040203125503</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.197237596587243</v>
+        <v>0.3890673088526881</v>
       </c>
       <c r="M4">
-        <v>0.4668563491942592</v>
+        <v>0.5696262734234168</v>
       </c>
       <c r="N4">
-        <v>1.347417447853424</v>
+        <v>2.606282021093939</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.542697251813934</v>
+        <v>2.604605926700913</v>
       </c>
       <c r="C5">
-        <v>0.5906091833914786</v>
+        <v>0.3077545846118142</v>
       </c>
       <c r="D5">
-        <v>0.006908462021925743</v>
+        <v>0.008157181559276694</v>
       </c>
       <c r="E5">
-        <v>0.02154708550779283</v>
+        <v>0.04466504598544851</v>
       </c>
       <c r="F5">
-        <v>2.017769978007649</v>
+        <v>3.685006833174342</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>1.111841769584622</v>
+        <v>2.164205901958354</v>
       </c>
       <c r="J5">
-        <v>0.05032165081921391</v>
+        <v>0.10369953747424</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1930263612070888</v>
+        <v>0.3886283279272718</v>
       </c>
       <c r="M5">
-        <v>0.4510422679733708</v>
+        <v>0.5665078430750725</v>
       </c>
       <c r="N5">
-        <v>1.36356102431084</v>
+        <v>2.612757886682509</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.526496160151908</v>
+        <v>2.601114421896227</v>
       </c>
       <c r="C6">
-        <v>0.5862969929644066</v>
+        <v>0.3066659361977031</v>
       </c>
       <c r="D6">
-        <v>0.006848261699076374</v>
+        <v>0.008133800573130401</v>
       </c>
       <c r="E6">
-        <v>0.02150406877611566</v>
+        <v>0.04464931198924749</v>
       </c>
       <c r="F6">
-        <v>2.013127396658419</v>
+        <v>3.684912919966536</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>1.110370592106392</v>
+        <v>2.164442654093065</v>
       </c>
       <c r="J6">
-        <v>0.0503201036575236</v>
+        <v>0.1036988273336075</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1923311947173758</v>
+        <v>0.3885579454866104</v>
       </c>
       <c r="M6">
-        <v>0.4484258505660179</v>
+        <v>0.5659946843121944</v>
       </c>
       <c r="N6">
-        <v>1.366266703888016</v>
+        <v>2.613845019354287</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.639251385099499</v>
+        <v>2.625483093406103</v>
       </c>
       <c r="C7">
-        <v>0.6163044327780085</v>
+        <v>0.3142400601816746</v>
       </c>
       <c r="D7">
-        <v>0.007269212303970818</v>
+        <v>0.008295696209629</v>
       </c>
       <c r="E7">
-        <v>0.02180300078176955</v>
+        <v>0.04475807496399753</v>
       </c>
       <c r="F7">
-        <v>2.045700436069851</v>
+        <v>3.685727860625263</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>1.120772599458526</v>
+        <v>2.16288955850564</v>
       </c>
       <c r="J7">
-        <v>0.05033142689438552</v>
+        <v>0.103703957561665</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1971805236334561</v>
+        <v>0.389061220361846</v>
       </c>
       <c r="M7">
-        <v>0.4666424267871818</v>
+        <v>0.569583905175449</v>
       </c>
       <c r="N7">
-        <v>1.347633477420032</v>
+        <v>2.606368564372012</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.145058118386487</v>
+        <v>2.736329342626846</v>
       </c>
       <c r="C8">
-        <v>0.7508455813604087</v>
+        <v>0.3481042622233019</v>
       </c>
       <c r="D8">
-        <v>0.009214338957708179</v>
+        <v>0.00900066218813933</v>
       </c>
       <c r="E8">
-        <v>0.02313388799932969</v>
+        <v>0.04522701464574386</v>
       </c>
       <c r="F8">
-        <v>2.198608073652608</v>
+        <v>3.693364361819292</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>1.171656477950883</v>
+        <v>2.15827131600917</v>
       </c>
       <c r="J8">
-        <v>0.05039632387055804</v>
+        <v>0.1037315606173923</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2192157199223459</v>
+        <v>0.3916466290039224</v>
       </c>
       <c r="M8">
-        <v>0.5485369034891079</v>
+        <v>0.5860988583692404</v>
       </c>
       <c r="N8">
-        <v>1.269151115366057</v>
+        <v>2.575096140284074</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.17480990429209</v>
+        <v>2.965633683675208</v>
       </c>
       <c r="C9">
-        <v>1.024899782974501</v>
+        <v>0.4161294350551543</v>
       </c>
       <c r="D9">
-        <v>0.01346249736637617</v>
+        <v>0.01035213266977664</v>
       </c>
       <c r="E9">
-        <v>0.02582003082482132</v>
+        <v>0.04610785708589837</v>
       </c>
       <c r="F9">
-        <v>2.537249937959643</v>
+        <v>3.72291425135495</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.29221981894834</v>
+        <v>2.157276658493046</v>
       </c>
       <c r="J9">
-        <v>0.05058249478890353</v>
+        <v>0.1038034384504165</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2651343845568022</v>
+        <v>0.3980251022055654</v>
       </c>
       <c r="M9">
-        <v>0.7159265340193173</v>
+        <v>0.6209188409757687</v>
       </c>
       <c r="N9">
-        <v>1.129768355549373</v>
+        <v>2.519964152420513</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.96333938089191</v>
+        <v>3.141436773030762</v>
       </c>
       <c r="C10">
-        <v>1.235269384865376</v>
+        <v>0.4671303913282259</v>
       </c>
       <c r="D10">
-        <v>0.01697879572186878</v>
+        <v>0.01132903325892443</v>
       </c>
       <c r="E10">
-        <v>0.02787747687112141</v>
+        <v>0.04673220311897985</v>
       </c>
       <c r="F10">
-        <v>2.815954305346338</v>
+        <v>3.753569981616067</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>1.396545368780835</v>
+        <v>2.161490814973746</v>
       </c>
       <c r="J10">
-        <v>0.05076113861785281</v>
+        <v>0.1038670009281777</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3009745227206082</v>
+        <v>0.4035088698425682</v>
       </c>
       <c r="M10">
-        <v>0.8445288122093615</v>
+        <v>0.647992586528197</v>
       </c>
       <c r="N10">
-        <v>1.037357898079939</v>
+        <v>2.483244440010118</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.331264393530432</v>
+        <v>3.223020637217132</v>
       </c>
       <c r="C11">
-        <v>1.333645053456792</v>
+        <v>0.4905624910068695</v>
       </c>
       <c r="D11">
-        <v>0.01869848477173264</v>
+        <v>0.01177059343518749</v>
       </c>
       <c r="E11">
-        <v>0.0288414906849761</v>
+        <v>0.04701145940365858</v>
       </c>
       <c r="F11">
-        <v>2.950829566917946</v>
+        <v>3.769472287082721</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>1.448208940213959</v>
+        <v>2.164488581522804</v>
       </c>
       <c r="J11">
-        <v>0.05085310214364114</v>
+        <v>0.1038982398580206</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3178508697168496</v>
+        <v>0.406176810924336</v>
       </c>
       <c r="M11">
-        <v>0.9046298166760351</v>
+        <v>0.6606349379672025</v>
       </c>
       <c r="N11">
-        <v>0.9977804765182299</v>
+        <v>2.467364006691156</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.472127748639878</v>
+        <v>3.254146587534137</v>
       </c>
       <c r="C12">
-        <v>1.371350456940547</v>
+        <v>0.4994694771287413</v>
       </c>
       <c r="D12">
-        <v>0.01937030416727836</v>
+        <v>0.01193744266496921</v>
       </c>
       <c r="E12">
-        <v>0.02921153057097214</v>
+        <v>0.0471165352951024</v>
       </c>
       <c r="F12">
-        <v>3.003218389869659</v>
+        <v>3.775776478165767</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>1.468452018651348</v>
+        <v>2.16577968943912</v>
       </c>
       <c r="J12">
-        <v>0.05088962463812408</v>
+        <v>0.1039104022066777</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3243346921692165</v>
+        <v>0.4072120051475707</v>
       </c>
       <c r="M12">
-        <v>0.9276540459085325</v>
+        <v>0.6654692879338455</v>
       </c>
       <c r="N12">
-        <v>0.9831756804355152</v>
+        <v>2.461469172150935</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.441718232089784</v>
+        <v>3.247432736640633</v>
       </c>
       <c r="C13">
-        <v>1.3632086211162</v>
+        <v>0.4975496893541731</v>
       </c>
       <c r="D13">
-        <v>0.01922464086358389</v>
+        <v>0.01190152394343968</v>
       </c>
       <c r="E13">
-        <v>0.02913159734466841</v>
+        <v>0.0470939350296451</v>
       </c>
       <c r="F13">
-        <v>2.991874453027521</v>
+        <v>3.77440618581241</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>1.464060816892527</v>
+        <v>2.165494683460807</v>
       </c>
       <c r="J13">
-        <v>0.05088168053125131</v>
+        <v>0.103907768045314</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3229339577679156</v>
+        <v>0.4069879503574612</v>
       </c>
       <c r="M13">
-        <v>0.9226829587440335</v>
+        <v>0.6644260347500079</v>
       </c>
       <c r="N13">
-        <v>0.9863035887989824</v>
+        <v>2.462733444097523</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.342821170036416</v>
+        <v>3.225576737791414</v>
       </c>
       <c r="C14">
-        <v>1.336737609279396</v>
+        <v>0.4912945948377114</v>
       </c>
       <c r="D14">
-        <v>0.01875332186128276</v>
+        <v>0.01178432716201883</v>
       </c>
       <c r="E14">
-        <v>0.02887182816348233</v>
+        <v>0.04702011746539458</v>
       </c>
       <c r="F14">
-        <v>2.95511235146995</v>
+        <v>3.769985272855195</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>1.449860278806071</v>
+        <v>2.164591673938546</v>
       </c>
       <c r="J14">
-        <v>0.05085607183659846</v>
+        <v>0.1038992337986269</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3183823650439876</v>
+        <v>0.4062614780188198</v>
       </c>
       <c r="M14">
-        <v>0.9065184994806756</v>
+        <v>0.6610317213680403</v>
       </c>
       <c r="N14">
-        <v>0.9965710930199094</v>
+        <v>2.466876653528288</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.282450923170643</v>
+        <v>3.212219520704991</v>
       </c>
       <c r="C15">
-        <v>1.320584455425774</v>
+        <v>0.4874675792045764</v>
       </c>
       <c r="D15">
-        <v>0.01846741667331742</v>
+        <v>0.01171249529200935</v>
       </c>
       <c r="E15">
-        <v>0.02871339231178638</v>
+        <v>0.04697481487721955</v>
       </c>
       <c r="F15">
-        <v>2.932770484751785</v>
+        <v>3.767314132318631</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>1.441252858208543</v>
+        <v>2.16405887511219</v>
       </c>
       <c r="J15">
-        <v>0.05084061206316726</v>
+        <v>0.1038940496326468</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3156068519704291</v>
+        <v>0.4058197351275652</v>
       </c>
       <c r="M15">
-        <v>0.89665297079776</v>
+        <v>0.6589587238595271</v>
       </c>
       <c r="N15">
-        <v>1.002910930928039</v>
+        <v>2.469429961998628</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.939497709328123</v>
+        <v>3.136137507340266</v>
       </c>
       <c r="C16">
-        <v>1.228899774216245</v>
+        <v>0.4656037468787986</v>
       </c>
       <c r="D16">
-        <v>0.016869101741257</v>
+        <v>0.01130012326510865</v>
       </c>
       <c r="E16">
-        <v>0.02781511953047033</v>
+        <v>0.04671385829661912</v>
       </c>
       <c r="F16">
-        <v>2.807315200089675</v>
+        <v>3.752570185415436</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>1.393259818667488</v>
+        <v>2.161316694366278</v>
       </c>
       <c r="J16">
-        <v>0.0507553569220569</v>
+        <v>0.1038650060398734</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2998840274370451</v>
+        <v>0.4033379996943864</v>
       </c>
       <c r="M16">
-        <v>0.8406361736508359</v>
+        <v>0.6471729493324432</v>
       </c>
       <c r="N16">
-        <v>1.039996244217065</v>
+        <v>2.484298862387092</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.731611524781442</v>
+        <v>3.089876312570254</v>
       </c>
       <c r="C17">
-        <v>1.173385505280578</v>
+        <v>0.4522506194153948</v>
       </c>
       <c r="D17">
-        <v>0.0159215819667935</v>
+        <v>0.01104645375584212</v>
       </c>
       <c r="E17">
-        <v>0.02727188431247374</v>
+        <v>0.04655255901755151</v>
       </c>
       <c r="F17">
-        <v>2.732526619782291</v>
+        <v>3.744027112404524</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>1.364944959570479</v>
+        <v>2.15991161609314</v>
       </c>
       <c r="J17">
-        <v>0.05070590139687603</v>
+        <v>0.1038477830046691</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2903924981366259</v>
+        <v>0.4018599159921905</v>
       </c>
       <c r="M17">
-        <v>0.8067051015970819</v>
+        <v>0.6400263721896238</v>
       </c>
       <c r="N17">
-        <v>1.063396279156208</v>
+        <v>2.49363160388566</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.612894490521285</v>
+        <v>3.063419628466761</v>
       </c>
       <c r="C18">
-        <v>1.141702667912739</v>
+        <v>0.4445920159601542</v>
       </c>
       <c r="D18">
-        <v>0.01538767318121614</v>
+        <v>0.01090027986039388</v>
       </c>
       <c r="E18">
-        <v>0.02696200763866763</v>
+        <v>0.0464593349858422</v>
       </c>
       <c r="F18">
-        <v>2.690261745820195</v>
+        <v>3.739297494425287</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>1.349049872805494</v>
+        <v>2.159205144083188</v>
       </c>
       <c r="J18">
-        <v>0.0506784518643375</v>
+        <v>0.1038380955975615</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.284986389891543</v>
+        <v>0.4010260789926434</v>
       </c>
       <c r="M18">
-        <v>0.7873370198857685</v>
+        <v>0.6359465670526916</v>
       </c>
       <c r="N18">
-        <v>1.077085059817065</v>
+        <v>2.499077046893525</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.572839484628332</v>
+        <v>3.054487864600389</v>
       </c>
       <c r="C19">
-        <v>1.13101598545893</v>
+        <v>0.4420026679857756</v>
       </c>
       <c r="D19">
-        <v>0.01520870947920017</v>
+        <v>0.01085074008245002</v>
       </c>
       <c r="E19">
-        <v>0.02685750459831038</v>
+        <v>0.04642769344794839</v>
       </c>
       <c r="F19">
-        <v>2.676076354658022</v>
+        <v>3.737727723508016</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>1.343733076606497</v>
+        <v>2.158983395022176</v>
       </c>
       <c r="J19">
-        <v>0.05066932452241524</v>
+        <v>0.1038348532339537</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2831647978077996</v>
+        <v>0.4007465594537933</v>
       </c>
       <c r="M19">
-        <v>0.7808037605761982</v>
+        <v>0.6345704898410034</v>
       </c>
       <c r="N19">
-        <v>1.0817584850383</v>
+        <v>2.500934080987889</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.753651561483593</v>
+        <v>3.094785210208443</v>
       </c>
       <c r="C20">
-        <v>1.17926901505723</v>
+        <v>0.4536698269420754</v>
       </c>
       <c r="D20">
-        <v>0.01602127766613393</v>
+        <v>0.01107348489577831</v>
       </c>
       <c r="E20">
-        <v>0.02732943935748011</v>
+        <v>0.04656977597612499</v>
       </c>
       <c r="F20">
-        <v>2.740409174422297</v>
+        <v>3.744917473505495</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>1.36791815993351</v>
+        <v>2.160050660718355</v>
       </c>
       <c r="J20">
-        <v>0.05071106186560748</v>
+        <v>0.1038495937878388</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2913973107676355</v>
+        <v>0.4020155718946796</v>
       </c>
       <c r="M20">
-        <v>0.8103015442736918</v>
+        <v>0.6407839582045085</v>
       </c>
       <c r="N20">
-        <v>1.060881337230768</v>
+        <v>2.492630094762262</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.371826066982635</v>
+        <v>3.231990077322621</v>
       </c>
       <c r="C21">
-        <v>1.344499919783459</v>
+        <v>0.4931309477616992</v>
       </c>
       <c r="D21">
-        <v>0.01889117132480678</v>
+        <v>0.01181876008400806</v>
       </c>
       <c r="E21">
-        <v>0.02894798500444917</v>
+        <v>0.04704181762333448</v>
       </c>
       <c r="F21">
-        <v>2.965873301237622</v>
+        <v>3.77127613213446</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>1.454012248384828</v>
+        <v>2.164852674005601</v>
       </c>
       <c r="J21">
-        <v>0.05086354625001555</v>
+        <v>0.1039017314908275</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3197166585270423</v>
+        <v>0.4064741848838622</v>
       </c>
       <c r="M21">
-        <v>0.9112588903136043</v>
+        <v>0.6620274385487832</v>
       </c>
       <c r="N21">
-        <v>0.9935446573422198</v>
+        <v>2.465656467338214</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.784922435446219</v>
+        <v>3.323013341181309</v>
       </c>
       <c r="C22">
-        <v>1.455164244981574</v>
+        <v>0.5191180643464008</v>
       </c>
       <c r="D22">
-        <v>0.02088885661720141</v>
+        <v>0.0123037645420716</v>
       </c>
       <c r="E22">
-        <v>0.03003542192922026</v>
+        <v>0.04734641064539868</v>
       </c>
       <c r="F22">
-        <v>3.120973011841329</v>
+        <v>3.790149142400935</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>1.514280096255177</v>
+        <v>2.168900125759265</v>
       </c>
       <c r="J22">
-        <v>0.05097319388485744</v>
+        <v>0.1039377459701338</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3387737252800918</v>
+        <v>0.4095332890089907</v>
       </c>
       <c r="M22">
-        <v>0.9788062547569183</v>
+        <v>0.6761850534748319</v>
       </c>
       <c r="N22">
-        <v>0.9517805806883644</v>
+        <v>2.448719907082328</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.563536775148975</v>
+        <v>3.274308677797706</v>
       </c>
       <c r="C23">
-        <v>1.395831057062821</v>
+        <v>0.5052300697462329</v>
       </c>
       <c r="D23">
-        <v>0.01981025508225898</v>
+        <v>0.01204508254394909</v>
       </c>
       <c r="E23">
-        <v>0.02945197418836365</v>
+        <v>0.04718419759767833</v>
       </c>
       <c r="F23">
-        <v>3.037429744025815</v>
+        <v>3.779925327765056</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>1.48172089808493</v>
+        <v>2.166656574021815</v>
       </c>
       <c r="J23">
-        <v>0.0509136990572685</v>
+        <v>0.1039183473370713</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3285484850676283</v>
+        <v>0.4078873145604689</v>
       </c>
       <c r="M23">
-        <v>0.9425988440331707</v>
+        <v>0.6686038050629648</v>
       </c>
       <c r="N23">
-        <v>0.9738551194733489</v>
+        <v>2.457695819566474</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.743684786344545</v>
+        <v>3.092565463107292</v>
       </c>
       <c r="C24">
-        <v>1.176608359374313</v>
+        <v>0.4530281462970152</v>
       </c>
       <c r="D24">
-        <v>0.01597617174432386</v>
+        <v>0.0110612651685571</v>
       </c>
       <c r="E24">
-        <v>0.0273034112026096</v>
+        <v>0.04656199371960845</v>
       </c>
       <c r="F24">
-        <v>2.736843202389764</v>
+        <v>3.744514374686332</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>1.366572787037825</v>
+        <v>2.159987483052888</v>
       </c>
       <c r="J24">
-        <v>0.05070872576727936</v>
+        <v>0.1038487744645877</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2909428778622356</v>
+        <v>0.4019451502310858</v>
       </c>
       <c r="M24">
-        <v>0.8086751611301395</v>
+        <v>0.6404413636828963</v>
       </c>
       <c r="N24">
-        <v>1.062017610155976</v>
+        <v>2.493082628087826</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.891319692098023</v>
+        <v>2.902317230790175</v>
       </c>
       <c r="C25">
-        <v>0.9493968247019779</v>
+        <v>0.3975498781724127</v>
       </c>
       <c r="D25">
-        <v>0.01225430055178833</v>
+        <v>0.009989545790197951</v>
       </c>
       <c r="E25">
-        <v>0.02508160638942236</v>
+        <v>0.04587363032347014</v>
       </c>
       <c r="F25">
-        <v>2.440879464539137</v>
+        <v>3.713353733863912</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>1.257081292640763</v>
+        <v>2.15667958081697</v>
       </c>
       <c r="J25">
-        <v>0.05052526071622232</v>
+        <v>0.1037821004895676</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2523783485983131</v>
+        <v>0.3961594989409321</v>
       </c>
       <c r="M25">
-        <v>0.6697724237178662</v>
+        <v>0.6112377519734977</v>
       </c>
       <c r="N25">
-        <v>1.165810318456991</v>
+        <v>2.534214764091153</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_3/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.767168770399508</v>
+        <v>3.284370824024734</v>
       </c>
       <c r="C2">
-        <v>0.3573878827432679</v>
+        <v>0.7878977319860212</v>
       </c>
       <c r="D2">
-        <v>0.009189471803441762</v>
+        <v>0.009766421664551217</v>
       </c>
       <c r="E2">
-        <v>0.04535142159914773</v>
+        <v>0.02349842073053576</v>
       </c>
       <c r="F2">
-        <v>3.696417607249984</v>
+        <v>2.242453695160904</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>2.157564468342606</v>
+        <v>1.186746498543357</v>
       </c>
       <c r="J2">
-        <v>0.1037402433238022</v>
+        <v>0.05041770193058781</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3924357081747871</v>
+        <v>0.2253541765136333</v>
       </c>
       <c r="M2">
-        <v>0.590738048185024</v>
+        <v>0.571136404145193</v>
       </c>
       <c r="N2">
-        <v>2.567041630754645</v>
+        <v>1.248830954980953</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.67863130748259</v>
+        <v>2.882979310722476</v>
       </c>
       <c r="C3">
-        <v>0.3305849875993658</v>
+        <v>0.6811426203689166</v>
       </c>
       <c r="D3">
-        <v>0.008639454830692728</v>
+        <v>0.00819488538213875</v>
       </c>
       <c r="E3">
-        <v>0.04498765152501871</v>
+        <v>0.02244604017929852</v>
       </c>
       <c r="F3">
-        <v>3.688666605529122</v>
+        <v>2.118075531532241</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>2.160225284905664</v>
+        <v>1.144480394757032</v>
       </c>
       <c r="J3">
-        <v>0.1037164097846137</v>
+        <v>0.050360022192808</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.390246473843284</v>
+        <v>0.2077451628607605</v>
       </c>
       <c r="M3">
-        <v>0.5774678069624812</v>
+        <v>0.5060706328181581</v>
       </c>
       <c r="N3">
-        <v>2.590871131174303</v>
+        <v>1.308836862773475</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.625770047447702</v>
+        <v>2.640574912950399</v>
       </c>
       <c r="C4">
-        <v>0.3143289265103419</v>
+        <v>0.6166566079625682</v>
       </c>
       <c r="D4">
-        <v>0.008297585275904851</v>
+        <v>0.007274180815294073</v>
       </c>
       <c r="E4">
-        <v>0.04475934156084893</v>
+        <v>0.02180650364770287</v>
       </c>
       <c r="F4">
-        <v>3.685739604632175</v>
+        <v>2.046086346559775</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>2.162872607125486</v>
+        <v>1.120896917935177</v>
       </c>
       <c r="J4">
-        <v>0.1037040203125503</v>
+        <v>0.05033156734183564</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3890673088526881</v>
+        <v>0.197237596587172</v>
       </c>
       <c r="M4">
-        <v>0.5696262734234168</v>
+        <v>0.466856349194245</v>
       </c>
       <c r="N4">
-        <v>2.606282021093939</v>
+        <v>1.347417447853395</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.604605926700913</v>
+        <v>2.542697251813877</v>
       </c>
       <c r="C5">
-        <v>0.3077545846118142</v>
+        <v>0.5906091833913081</v>
       </c>
       <c r="D5">
-        <v>0.008157181559276694</v>
+        <v>0.006908462022032325</v>
       </c>
       <c r="E5">
-        <v>0.04466504598544851</v>
+        <v>0.0215470855077875</v>
       </c>
       <c r="F5">
-        <v>3.685006833174342</v>
+        <v>2.017769978007621</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>2.164205901958354</v>
+        <v>1.111841769584608</v>
       </c>
       <c r="J5">
-        <v>0.10369953747424</v>
+        <v>0.05032165081908069</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3886283279272718</v>
+        <v>0.1930263612070746</v>
       </c>
       <c r="M5">
-        <v>0.5665078430750725</v>
+        <v>0.4510422679733708</v>
       </c>
       <c r="N5">
-        <v>2.612757886682509</v>
+        <v>1.363561024310819</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.601114421896227</v>
+        <v>2.526496160152021</v>
       </c>
       <c r="C6">
-        <v>0.3066659361977031</v>
+        <v>0.5862969929642361</v>
       </c>
       <c r="D6">
-        <v>0.008133800573130401</v>
+        <v>0.006848261698955582</v>
       </c>
       <c r="E6">
-        <v>0.04464931198924749</v>
+        <v>0.02150406877611566</v>
       </c>
       <c r="F6">
-        <v>3.684912919966536</v>
+        <v>2.013127396658419</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>2.164442654093065</v>
+        <v>1.110370592106392</v>
       </c>
       <c r="J6">
-        <v>0.1036988273336075</v>
+        <v>0.05032010365754225</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3885579454866104</v>
+        <v>0.1923311947173758</v>
       </c>
       <c r="M6">
-        <v>0.5659946843121944</v>
+        <v>0.4484258505660108</v>
       </c>
       <c r="N6">
-        <v>2.613845019354287</v>
+        <v>1.366266703888016</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.625483093406103</v>
+        <v>2.639251385099442</v>
       </c>
       <c r="C7">
-        <v>0.3142400601816746</v>
+        <v>0.6163044327779517</v>
       </c>
       <c r="D7">
-        <v>0.008295696209629</v>
+        <v>0.007269212303857131</v>
       </c>
       <c r="E7">
-        <v>0.04475807496399753</v>
+        <v>0.02180300078177044</v>
       </c>
       <c r="F7">
-        <v>3.685727860625263</v>
+        <v>2.045700436069879</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>2.16288955850564</v>
+        <v>1.120772599458526</v>
       </c>
       <c r="J7">
-        <v>0.103703957561665</v>
+        <v>0.05033142689435355</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.389061220361846</v>
+        <v>0.1971805236335342</v>
       </c>
       <c r="M7">
-        <v>0.569583905175449</v>
+        <v>0.4666424267871889</v>
       </c>
       <c r="N7">
-        <v>2.606368564372012</v>
+        <v>1.347633477419997</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.736329342626846</v>
+        <v>3.145058118386657</v>
       </c>
       <c r="C8">
-        <v>0.3481042622233019</v>
+        <v>0.7508455813605792</v>
       </c>
       <c r="D8">
-        <v>0.00900066218813933</v>
+        <v>0.009214338957729495</v>
       </c>
       <c r="E8">
-        <v>0.04522701464574386</v>
+        <v>0.02313388799933147</v>
       </c>
       <c r="F8">
-        <v>3.693364361819292</v>
+        <v>2.198608073652608</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>2.15827131600917</v>
+        <v>1.171656477950876</v>
       </c>
       <c r="J8">
-        <v>0.1037315606173923</v>
+        <v>0.05039632387062198</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3916466290039224</v>
+        <v>0.2192157199223388</v>
       </c>
       <c r="M8">
-        <v>0.5860988583692404</v>
+        <v>0.5485369034891008</v>
       </c>
       <c r="N8">
-        <v>2.575096140284074</v>
+        <v>1.269151115366121</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.965633683675208</v>
+        <v>4.174809904292204</v>
       </c>
       <c r="C9">
-        <v>0.4161294350551543</v>
+        <v>1.024899782975012</v>
       </c>
       <c r="D9">
-        <v>0.01035213266977664</v>
+        <v>0.0134624973664792</v>
       </c>
       <c r="E9">
-        <v>0.04610785708589837</v>
+        <v>0.0258200308248302</v>
       </c>
       <c r="F9">
-        <v>3.72291425135495</v>
+        <v>2.537249937959615</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>2.157276658493046</v>
+        <v>1.292219818948354</v>
       </c>
       <c r="J9">
-        <v>0.1038034384504165</v>
+        <v>0.0505824947890563</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3980251022055654</v>
+        <v>0.2651343845566601</v>
       </c>
       <c r="M9">
-        <v>0.6209188409757687</v>
+        <v>0.7159265340193102</v>
       </c>
       <c r="N9">
-        <v>2.519964152420513</v>
+        <v>1.129768355549345</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.141436773030762</v>
+        <v>4.963339380891625</v>
       </c>
       <c r="C10">
-        <v>0.4671303913282259</v>
+        <v>1.235269384864921</v>
       </c>
       <c r="D10">
-        <v>0.01132903325892443</v>
+        <v>0.01697879572197536</v>
       </c>
       <c r="E10">
-        <v>0.04673220311897985</v>
+        <v>0.02787747687111608</v>
       </c>
       <c r="F10">
-        <v>3.753569981616067</v>
+        <v>2.815954305346338</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>2.161490814973746</v>
+        <v>1.396545368780835</v>
       </c>
       <c r="J10">
-        <v>0.1038670009281777</v>
+        <v>0.05076113861778353</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4035088698425682</v>
+        <v>0.3009745227206508</v>
       </c>
       <c r="M10">
-        <v>0.647992586528197</v>
+        <v>0.8445288122093686</v>
       </c>
       <c r="N10">
-        <v>2.483244440010118</v>
+        <v>1.037357898079875</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.223020637217132</v>
+        <v>5.331264393530205</v>
       </c>
       <c r="C11">
-        <v>0.4905624910068695</v>
+        <v>1.333645053456621</v>
       </c>
       <c r="D11">
-        <v>0.01177059343518749</v>
+        <v>0.01869848477171132</v>
       </c>
       <c r="E11">
-        <v>0.04701145940365858</v>
+        <v>0.02884149068493524</v>
       </c>
       <c r="F11">
-        <v>3.769472287082721</v>
+        <v>2.950829566917974</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>2.164488581522804</v>
+        <v>1.448208940213959</v>
       </c>
       <c r="J11">
-        <v>0.1038982398580206</v>
+        <v>0.05085310214360739</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.406176810924336</v>
+        <v>0.3178508697168922</v>
       </c>
       <c r="M11">
-        <v>0.6606349379672025</v>
+        <v>0.9046298166760494</v>
       </c>
       <c r="N11">
-        <v>2.467364006691156</v>
+        <v>0.9977804765182583</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.254146587534137</v>
+        <v>5.472127748639878</v>
       </c>
       <c r="C12">
-        <v>0.4994694771287413</v>
+        <v>1.371350456940377</v>
       </c>
       <c r="D12">
-        <v>0.01193744266496921</v>
+        <v>0.01937030416740981</v>
       </c>
       <c r="E12">
-        <v>0.0471165352951024</v>
+        <v>0.02921153057097214</v>
       </c>
       <c r="F12">
-        <v>3.775776478165767</v>
+        <v>3.00321838986963</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>2.16577968943912</v>
+        <v>1.468452018651348</v>
       </c>
       <c r="J12">
-        <v>0.1039104022066777</v>
+        <v>0.05088962463813473</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4072120051475707</v>
+        <v>0.3243346921692165</v>
       </c>
       <c r="M12">
-        <v>0.6654692879338455</v>
+        <v>0.9276540459085325</v>
       </c>
       <c r="N12">
-        <v>2.461469172150935</v>
+        <v>0.9831756804355223</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.247432736640633</v>
+        <v>5.441718232089897</v>
       </c>
       <c r="C13">
-        <v>0.4975496893541731</v>
+        <v>1.363208621116655</v>
       </c>
       <c r="D13">
-        <v>0.01190152394343968</v>
+        <v>0.01922464086357678</v>
       </c>
       <c r="E13">
-        <v>0.0470939350296451</v>
+        <v>0.02913159734469062</v>
       </c>
       <c r="F13">
-        <v>3.77440618581241</v>
+        <v>2.991874453027521</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>2.165494683460807</v>
+        <v>1.464060816892527</v>
       </c>
       <c r="J13">
-        <v>0.103907768045314</v>
+        <v>0.0508816805312815</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4069879503574612</v>
+        <v>0.3229339577679582</v>
       </c>
       <c r="M13">
-        <v>0.6644260347500079</v>
+        <v>0.9226829587440406</v>
       </c>
       <c r="N13">
-        <v>2.462733444097523</v>
+        <v>0.9863035887989469</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.225576737791414</v>
+        <v>5.342821170036359</v>
       </c>
       <c r="C14">
-        <v>0.4912945948377114</v>
+        <v>1.336737609279396</v>
       </c>
       <c r="D14">
-        <v>0.01178432716201883</v>
+        <v>0.01875332186139289</v>
       </c>
       <c r="E14">
-        <v>0.04702011746539458</v>
+        <v>0.02887182816342015</v>
       </c>
       <c r="F14">
-        <v>3.769985272855195</v>
+        <v>2.955112351469921</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>2.164591673938546</v>
+        <v>1.449860278806085</v>
       </c>
       <c r="J14">
-        <v>0.1038992337986269</v>
+        <v>0.05085607183649721</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4062614780188198</v>
+        <v>0.3183823650439876</v>
       </c>
       <c r="M14">
-        <v>0.6610317213680403</v>
+        <v>0.9065184994806685</v>
       </c>
       <c r="N14">
-        <v>2.466876653528288</v>
+        <v>0.9965710930198668</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.212219520704991</v>
+        <v>5.282450923170586</v>
       </c>
       <c r="C15">
-        <v>0.4874675792045764</v>
+        <v>1.320584455425546</v>
       </c>
       <c r="D15">
-        <v>0.01171249529200935</v>
+        <v>0.01846741667365848</v>
       </c>
       <c r="E15">
-        <v>0.04697481487721955</v>
+        <v>0.02871339231178105</v>
       </c>
       <c r="F15">
-        <v>3.767314132318631</v>
+        <v>2.932770484751785</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>2.16405887511219</v>
+        <v>1.441252858208529</v>
       </c>
       <c r="J15">
-        <v>0.1038940496326468</v>
+        <v>0.05084061206313883</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4058197351275652</v>
+        <v>0.3156068519704291</v>
       </c>
       <c r="M15">
-        <v>0.6589587238595271</v>
+        <v>0.8966529707977955</v>
       </c>
       <c r="N15">
-        <v>2.469429961998628</v>
+        <v>1.002910930928053</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.136137507340266</v>
+        <v>4.939497709328236</v>
       </c>
       <c r="C16">
-        <v>0.4656037468787986</v>
+        <v>1.228899774216018</v>
       </c>
       <c r="D16">
-        <v>0.01130012326510865</v>
+        <v>0.01686910174159806</v>
       </c>
       <c r="E16">
-        <v>0.04671385829661912</v>
+        <v>0.02781511953046767</v>
       </c>
       <c r="F16">
-        <v>3.752570185415436</v>
+        <v>2.807315200089675</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>2.161316694366278</v>
+        <v>1.39325981866746</v>
       </c>
       <c r="J16">
-        <v>0.1038650060398734</v>
+        <v>0.05075535692203736</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4033379996943864</v>
+        <v>0.2998840274370735</v>
       </c>
       <c r="M16">
-        <v>0.6471729493324432</v>
+        <v>0.8406361736508359</v>
       </c>
       <c r="N16">
-        <v>2.484298862387092</v>
+        <v>1.039996244217043</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.089876312570254</v>
+        <v>4.731611524781329</v>
       </c>
       <c r="C17">
-        <v>0.4522506194153948</v>
+        <v>1.173385505280635</v>
       </c>
       <c r="D17">
-        <v>0.01104645375584212</v>
+        <v>0.01592158196679705</v>
       </c>
       <c r="E17">
-        <v>0.04655255901755151</v>
+        <v>0.02727188431244798</v>
       </c>
       <c r="F17">
-        <v>3.744027112404524</v>
+        <v>2.732526619782291</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>2.15991161609314</v>
+        <v>1.364944959570494</v>
       </c>
       <c r="J17">
-        <v>0.1038477830046691</v>
+        <v>0.05070590139689024</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4018599159921905</v>
+        <v>0.2903924981365975</v>
       </c>
       <c r="M17">
-        <v>0.6400263721896238</v>
+        <v>0.806705101597089</v>
       </c>
       <c r="N17">
-        <v>2.49363160388566</v>
+        <v>1.063396279156215</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.063419628466761</v>
+        <v>4.612894490521455</v>
       </c>
       <c r="C18">
-        <v>0.4445920159601542</v>
+        <v>1.141702667912909</v>
       </c>
       <c r="D18">
-        <v>0.01090027986039388</v>
+        <v>0.01538767318122325</v>
       </c>
       <c r="E18">
-        <v>0.0464593349858422</v>
+        <v>0.02696200763864098</v>
       </c>
       <c r="F18">
-        <v>3.739297494425287</v>
+        <v>2.690261745820195</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>2.159205144083188</v>
+        <v>1.349049872805494</v>
       </c>
       <c r="J18">
-        <v>0.1038380955975615</v>
+        <v>0.05067845186428777</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4010260789926434</v>
+        <v>0.2849863898916425</v>
       </c>
       <c r="M18">
-        <v>0.6359465670526916</v>
+        <v>0.7873370198857756</v>
       </c>
       <c r="N18">
-        <v>2.499077046893525</v>
+        <v>1.077085059817072</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.054487864600389</v>
+        <v>4.572839484628332</v>
       </c>
       <c r="C19">
-        <v>0.4420026679857756</v>
+        <v>1.131015985459157</v>
       </c>
       <c r="D19">
-        <v>0.01085074008245002</v>
+        <v>0.01520870947919661</v>
       </c>
       <c r="E19">
-        <v>0.04642769344794839</v>
+        <v>0.0268575045983086</v>
       </c>
       <c r="F19">
-        <v>3.737727723508016</v>
+        <v>2.676076354658022</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>2.158983395022176</v>
+        <v>1.343733076606512</v>
       </c>
       <c r="J19">
-        <v>0.1038348532339537</v>
+        <v>0.05066932452247741</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4007465594537933</v>
+        <v>0.2831647978077854</v>
       </c>
       <c r="M19">
-        <v>0.6345704898410034</v>
+        <v>0.7808037605761982</v>
       </c>
       <c r="N19">
-        <v>2.500934080987889</v>
+        <v>1.08175848503825</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.094785210208443</v>
+        <v>4.75365156148348</v>
       </c>
       <c r="C20">
-        <v>0.4536698269420754</v>
+        <v>1.17926901505723</v>
       </c>
       <c r="D20">
-        <v>0.01107348489577831</v>
+        <v>0.01602127766612682</v>
       </c>
       <c r="E20">
-        <v>0.04656977597612499</v>
+        <v>0.02732943935747567</v>
       </c>
       <c r="F20">
-        <v>3.744917473505495</v>
+        <v>2.740409174422297</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>2.160050660718355</v>
+        <v>1.367918159933495</v>
       </c>
       <c r="J20">
-        <v>0.1038495937878388</v>
+        <v>0.05071106186553109</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4020155718946796</v>
+        <v>0.2913973107677208</v>
       </c>
       <c r="M20">
-        <v>0.6407839582045085</v>
+        <v>0.8103015442736989</v>
       </c>
       <c r="N20">
-        <v>2.492630094762262</v>
+        <v>1.06088133723074</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.231990077322621</v>
+        <v>5.371826066982521</v>
       </c>
       <c r="C21">
-        <v>0.4931309477616992</v>
+        <v>1.344499919783459</v>
       </c>
       <c r="D21">
-        <v>0.01181876008400806</v>
+        <v>0.01889117132491336</v>
       </c>
       <c r="E21">
-        <v>0.04704181762333448</v>
+        <v>0.02894798500444473</v>
       </c>
       <c r="F21">
-        <v>3.77127613213446</v>
+        <v>2.965873301237593</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>2.164852674005601</v>
+        <v>1.454012248384814</v>
       </c>
       <c r="J21">
-        <v>0.1039017314908275</v>
+        <v>0.05086354624999601</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4064741848838622</v>
+        <v>0.3197166585270708</v>
       </c>
       <c r="M21">
-        <v>0.6620274385487832</v>
+        <v>0.9112588903136043</v>
       </c>
       <c r="N21">
-        <v>2.465656467338214</v>
+        <v>0.9935446573421984</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.323013341181309</v>
+        <v>5.784922435446163</v>
       </c>
       <c r="C22">
-        <v>0.5191180643464008</v>
+        <v>1.455164244981347</v>
       </c>
       <c r="D22">
-        <v>0.0123037645420716</v>
+        <v>0.02088885661719786</v>
       </c>
       <c r="E22">
-        <v>0.04734641064539868</v>
+        <v>0.03003542192922026</v>
       </c>
       <c r="F22">
-        <v>3.790149142400935</v>
+        <v>3.120973011841329</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>2.168900125759265</v>
+        <v>1.514280096255177</v>
       </c>
       <c r="J22">
-        <v>0.1039377459701338</v>
+        <v>0.05097319388491606</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4095332890089907</v>
+        <v>0.3387737252801486</v>
       </c>
       <c r="M22">
-        <v>0.6761850534748319</v>
+        <v>0.9788062547569183</v>
       </c>
       <c r="N22">
-        <v>2.448719907082328</v>
+        <v>0.9517805806883715</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.274308677797706</v>
+        <v>5.563536775149032</v>
       </c>
       <c r="C23">
-        <v>0.5052300697462329</v>
+        <v>1.395831057062537</v>
       </c>
       <c r="D23">
-        <v>0.01204508254394909</v>
+        <v>0.01981025508224121</v>
       </c>
       <c r="E23">
-        <v>0.04718419759767833</v>
+        <v>0.02945197418836099</v>
       </c>
       <c r="F23">
-        <v>3.779925327765056</v>
+        <v>3.037429744025843</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>2.166656574021815</v>
+        <v>1.48172089808493</v>
       </c>
       <c r="J23">
-        <v>0.1039183473370713</v>
+        <v>0.05091369905724896</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4078873145604689</v>
+        <v>0.3285484850676568</v>
       </c>
       <c r="M23">
-        <v>0.6686038050629648</v>
+        <v>0.9425988440331921</v>
       </c>
       <c r="N23">
-        <v>2.457695819566474</v>
+        <v>0.9738551194734271</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.092565463107292</v>
+        <v>4.743684786344488</v>
       </c>
       <c r="C24">
-        <v>0.4530281462970152</v>
+        <v>1.176608359374029</v>
       </c>
       <c r="D24">
-        <v>0.0110612651685571</v>
+        <v>0.01597617174409294</v>
       </c>
       <c r="E24">
-        <v>0.04656199371960845</v>
+        <v>0.02730341120261226</v>
       </c>
       <c r="F24">
-        <v>3.744514374686332</v>
+        <v>2.736843202389778</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>2.159987483052888</v>
+        <v>1.366572787037839</v>
       </c>
       <c r="J24">
-        <v>0.1038487744645877</v>
+        <v>0.05070872576722607</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4019451502310858</v>
+        <v>0.2909428778621361</v>
       </c>
       <c r="M24">
-        <v>0.6404413636828963</v>
+        <v>0.8086751611301324</v>
       </c>
       <c r="N24">
-        <v>2.493082628087826</v>
+        <v>1.062017610155984</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.902317230790175</v>
+        <v>3.891319692098307</v>
       </c>
       <c r="C25">
-        <v>0.3975498781724127</v>
+        <v>0.9493968247024611</v>
       </c>
       <c r="D25">
-        <v>0.009989545790197951</v>
+        <v>0.01225430055188426</v>
       </c>
       <c r="E25">
-        <v>0.04587363032347014</v>
+        <v>0.02508160638940282</v>
       </c>
       <c r="F25">
-        <v>3.713353733863912</v>
+        <v>2.440879464539108</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>2.15667958081697</v>
+        <v>1.257081292640777</v>
       </c>
       <c r="J25">
-        <v>0.1037821004895676</v>
+        <v>0.05052526071619567</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3961594989409321</v>
+        <v>0.2523783485982563</v>
       </c>
       <c r="M25">
-        <v>0.6112377519734977</v>
+        <v>0.6697724237178662</v>
       </c>
       <c r="N25">
-        <v>2.534214764091153</v>
+        <v>1.165810318456941</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.284370824024734</v>
+        <v>1.236673423544204</v>
       </c>
       <c r="C2">
-        <v>0.7878977319860212</v>
+        <v>0.1652122565128735</v>
       </c>
       <c r="D2">
-        <v>0.009766421664551217</v>
+        <v>0.006328559586677329</v>
       </c>
       <c r="E2">
-        <v>0.02349842073053576</v>
+        <v>0.01341647733921647</v>
       </c>
       <c r="F2">
-        <v>2.242453695160904</v>
+        <v>1.88373286895019</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0.03780302080123787</v>
+      </c>
+      <c r="I2">
+        <v>0.04231771570895182</v>
+      </c>
+      <c r="J2">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I2">
-        <v>1.186746498543357</v>
-      </c>
-      <c r="J2">
-        <v>0.05041770193058781</v>
-      </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.142965697954473</v>
       </c>
       <c r="L2">
-        <v>0.2253541765136333</v>
+        <v>0.038099992632743</v>
       </c>
       <c r="M2">
-        <v>0.571136404145193</v>
+        <v>1.291913383585751</v>
       </c>
       <c r="N2">
-        <v>1.248830954980953</v>
+        <v>0.1507747128199242</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2527024575627301</v>
+      </c>
+      <c r="P2">
+        <v>1.961904347293228</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.882979310722476</v>
+        <v>1.088447975328194</v>
       </c>
       <c r="C3">
-        <v>0.6811426203689166</v>
+        <v>0.1436153321317875</v>
       </c>
       <c r="D3">
-        <v>0.00819488538213875</v>
+        <v>0.005582593319530815</v>
       </c>
       <c r="E3">
-        <v>0.02244604017929852</v>
+        <v>0.01213199777198515</v>
       </c>
       <c r="F3">
-        <v>2.118075531532241</v>
+        <v>1.797583237699541</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.04424820549859709</v>
+      </c>
+      <c r="I3">
+        <v>0.04936150912816784</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>1.144480394757032</v>
-      </c>
-      <c r="J3">
-        <v>0.050360022192808</v>
-      </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.103189234637561</v>
       </c>
       <c r="L3">
-        <v>0.2077451628607605</v>
+        <v>0.03533422608006287</v>
       </c>
       <c r="M3">
-        <v>0.5060706328181581</v>
+        <v>1.135039197263978</v>
       </c>
       <c r="N3">
-        <v>1.308836862773475</v>
+        <v>0.1354200916228194</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.223639269974047</v>
+      </c>
+      <c r="P3">
+        <v>1.971395566843015</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.640574912950399</v>
+        <v>0.9973567268254726</v>
       </c>
       <c r="C4">
-        <v>0.6166566079625682</v>
+        <v>0.1306578651950758</v>
       </c>
       <c r="D4">
-        <v>0.007274180815294073</v>
+        <v>0.005137752606193757</v>
       </c>
       <c r="E4">
-        <v>0.02180650364770287</v>
+        <v>0.011348787047333</v>
       </c>
       <c r="F4">
-        <v>2.046086346559775</v>
+        <v>1.745166023973084</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.04860848085812108</v>
+      </c>
+      <c r="I4">
+        <v>0.05415568246906366</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>1.120896917935177</v>
-      </c>
-      <c r="J4">
-        <v>0.05033156734183564</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.078855657513756</v>
       </c>
       <c r="L4">
-        <v>0.197237596587172</v>
+        <v>0.03362218165091058</v>
       </c>
       <c r="M4">
-        <v>0.466856349194245</v>
+        <v>1.039045727342369</v>
       </c>
       <c r="N4">
-        <v>1.347417447853395</v>
+        <v>0.1260503959778632</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2058147454078068</v>
+      </c>
+      <c r="P4">
+        <v>1.977348176930207</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.542697251813877</v>
+        <v>0.9592612252781976</v>
       </c>
       <c r="C5">
-        <v>0.5906091833913081</v>
+        <v>0.1256571692372859</v>
       </c>
       <c r="D5">
-        <v>0.006908462022032325</v>
+        <v>0.004986058827242346</v>
       </c>
       <c r="E5">
-        <v>0.0215470855077875</v>
+        <v>0.01102862893900625</v>
       </c>
       <c r="F5">
-        <v>2.017769978007621</v>
+        <v>1.722465913562218</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.05049784052637873</v>
+      </c>
+      <c r="I5">
+        <v>0.05634043330771821</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>1.111841769584608</v>
-      </c>
-      <c r="J5">
-        <v>0.05032165081908069</v>
-      </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.067888408817993</v>
       </c>
       <c r="L5">
-        <v>0.1930263612070746</v>
+        <v>0.03289848059210509</v>
       </c>
       <c r="M5">
-        <v>0.4510422679733708</v>
+        <v>0.999537770721588</v>
       </c>
       <c r="N5">
-        <v>1.363561024310819</v>
+        <v>0.1223469055634396</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1984730248720936</v>
+      </c>
+      <c r="P5">
+        <v>1.978517719559292</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.526496160152021</v>
+        <v>0.9517749990127982</v>
       </c>
       <c r="C6">
-        <v>0.5862969929642361</v>
+        <v>0.1250876530423142</v>
       </c>
       <c r="D6">
-        <v>0.006848261698955582</v>
+        <v>0.004993641461128462</v>
       </c>
       <c r="E6">
-        <v>0.02150406877611566</v>
+        <v>0.01097323469093681</v>
       </c>
       <c r="F6">
-        <v>2.013127396658419</v>
+        <v>1.716929980859334</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.05083487650024265</v>
+      </c>
+      <c r="I6">
+        <v>0.05685966480672455</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>1.110370592106392</v>
-      </c>
-      <c r="J6">
-        <v>0.05032010365754225</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.064760820958377</v>
       </c>
       <c r="L6">
-        <v>0.1923311947173758</v>
+        <v>0.03275160472078742</v>
       </c>
       <c r="M6">
-        <v>0.4484258505660108</v>
+        <v>0.9924200277199589</v>
       </c>
       <c r="N6">
-        <v>1.366266703888016</v>
+        <v>0.1218574395304017</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1971546038364203</v>
+      </c>
+      <c r="P6">
+        <v>1.977144883421616</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.639251385099442</v>
+        <v>0.9936675785084219</v>
       </c>
       <c r="C7">
-        <v>0.6163044327779517</v>
+        <v>0.1312923625595062</v>
       </c>
       <c r="D7">
-        <v>0.007269212303857131</v>
+        <v>0.005224900925879794</v>
       </c>
       <c r="E7">
-        <v>0.02180300078177044</v>
+        <v>0.01133823920003429</v>
       </c>
       <c r="F7">
-        <v>2.045700436069879</v>
+        <v>1.740018000670403</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.04867946755929831</v>
+      </c>
+      <c r="I7">
+        <v>0.05457322146602284</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>1.120772599458526</v>
-      </c>
-      <c r="J7">
-        <v>0.05033142689435355</v>
-      </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.075137292216759</v>
       </c>
       <c r="L7">
-        <v>0.1971805236335342</v>
+        <v>0.03354020723078932</v>
       </c>
       <c r="M7">
-        <v>0.4666424267871889</v>
+        <v>1.036973788537637</v>
       </c>
       <c r="N7">
-        <v>1.347633477419997</v>
+        <v>0.1263418888346735</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2054431398729548</v>
+      </c>
+      <c r="P7">
+        <v>1.973097712058077</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.145058118386657</v>
+        <v>1.18132894325467</v>
       </c>
       <c r="C8">
-        <v>0.7508455813605792</v>
+        <v>0.1586333928412387</v>
       </c>
       <c r="D8">
-        <v>0.009214338957729495</v>
+        <v>0.006187964014081615</v>
       </c>
       <c r="E8">
-        <v>0.02313388799933147</v>
+        <v>0.01296375676961592</v>
       </c>
       <c r="F8">
-        <v>2.198608073652608</v>
+        <v>1.847524917173004</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.03999252506237827</v>
+      </c>
+      <c r="I8">
+        <v>0.04511018811574896</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>1.171656477950876</v>
-      </c>
-      <c r="J8">
-        <v>0.05039632387062198</v>
-      </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.1245144166625</v>
       </c>
       <c r="L8">
-        <v>0.2192157199223388</v>
+        <v>0.03705286898361226</v>
       </c>
       <c r="M8">
-        <v>0.5485369034891008</v>
+        <v>1.235683997428339</v>
       </c>
       <c r="N8">
-        <v>1.269151115366121</v>
+        <v>0.1459230553661186</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2423113416515577</v>
+      </c>
+      <c r="P8">
+        <v>1.959594442070959</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.174809904292204</v>
+        <v>1.554866519226863</v>
       </c>
       <c r="C9">
-        <v>1.024899782975012</v>
+        <v>0.2136826846898998</v>
       </c>
       <c r="D9">
-        <v>0.0134624973664792</v>
+        <v>0.008030929135902198</v>
       </c>
       <c r="E9">
-        <v>0.0258200308248302</v>
+        <v>0.01623044510762917</v>
       </c>
       <c r="F9">
-        <v>2.537249937959615</v>
+        <v>2.071291925156331</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.02623351690887854</v>
+      </c>
+      <c r="I9">
+        <v>0.02985379483766337</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>1.292219818948354</v>
-      </c>
-      <c r="J9">
-        <v>0.0505824947890563</v>
-      </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.228613354381586</v>
       </c>
       <c r="L9">
-        <v>0.2651343845566601</v>
+        <v>0.04400353386592659</v>
       </c>
       <c r="M9">
-        <v>0.7159265340193102</v>
+        <v>1.631434131467756</v>
       </c>
       <c r="N9">
-        <v>1.129768355549345</v>
+        <v>0.1842453547415559</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.3153626839029968</v>
+      </c>
+      <c r="P9">
+        <v>1.941700485375904</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.963339380891625</v>
+        <v>1.817238184718434</v>
       </c>
       <c r="C10">
-        <v>1.235269384864921</v>
+        <v>0.2562492677914463</v>
       </c>
       <c r="D10">
-        <v>0.01697879572197536</v>
+        <v>0.009343007889853538</v>
       </c>
       <c r="E10">
-        <v>0.02787747687111608</v>
+        <v>0.01807282440192015</v>
       </c>
       <c r="F10">
-        <v>2.815954305346338</v>
+        <v>2.210344989789633</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.01891737854233622</v>
+      </c>
+      <c r="I10">
+        <v>0.02161247759151053</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>1.396545368780835</v>
-      </c>
-      <c r="J10">
-        <v>0.05076113861778353</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.288829238102025</v>
       </c>
       <c r="L10">
-        <v>0.3009745227206508</v>
+        <v>0.04811076896398614</v>
       </c>
       <c r="M10">
-        <v>0.8445288122093686</v>
+        <v>1.914782941730124</v>
       </c>
       <c r="N10">
-        <v>1.037357898079875</v>
+        <v>0.2060229758352818</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3639155641716982</v>
+      </c>
+      <c r="P10">
+        <v>1.908877645215128</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.331264393530205</v>
+        <v>1.835800929054017</v>
       </c>
       <c r="C11">
-        <v>1.333645053456621</v>
+        <v>0.2745313652910966</v>
       </c>
       <c r="D11">
-        <v>0.01869848477171132</v>
+        <v>0.008605936065997355</v>
       </c>
       <c r="E11">
-        <v>0.02884149068493524</v>
+        <v>0.01491081091337598</v>
       </c>
       <c r="F11">
-        <v>2.950829566917974</v>
+        <v>2.042795593276949</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.03699878868685857</v>
+      </c>
+      <c r="I11">
+        <v>0.02038822686647102</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>1.448208940213959</v>
-      </c>
-      <c r="J11">
-        <v>0.05085310214360739</v>
-      </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.181251492874502</v>
       </c>
       <c r="L11">
-        <v>0.3178508697168922</v>
+        <v>0.04562251257383432</v>
       </c>
       <c r="M11">
-        <v>0.9046298166760494</v>
+        <v>1.957248942372303</v>
       </c>
       <c r="N11">
-        <v>0.9977804765182583</v>
+        <v>0.1599719950054705</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.3403621849235563</v>
+      </c>
+      <c r="P11">
+        <v>1.7384089838569</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.472127748639878</v>
+        <v>1.799958701988572</v>
       </c>
       <c r="C12">
-        <v>1.371350456940377</v>
+        <v>0.2795583101833188</v>
       </c>
       <c r="D12">
-        <v>0.01937030416740981</v>
+        <v>0.007602335001994476</v>
       </c>
       <c r="E12">
-        <v>0.02921153057097214</v>
+        <v>0.01385105827635291</v>
       </c>
       <c r="F12">
-        <v>3.00321838986963</v>
+        <v>1.884153069516017</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.07609278553169219</v>
+      </c>
+      <c r="I12">
+        <v>0.02025597487197928</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>1.468452018651348</v>
-      </c>
-      <c r="J12">
-        <v>0.05088962463813473</v>
-      </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.087067720040352</v>
       </c>
       <c r="L12">
-        <v>0.3243346921692165</v>
+        <v>0.04845589381353932</v>
       </c>
       <c r="M12">
-        <v>0.9276540459085325</v>
+        <v>1.934133527752209</v>
       </c>
       <c r="N12">
-        <v>0.9831756804355223</v>
+        <v>0.1216892511795322</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.3113711947784026</v>
+      </c>
+      <c r="P12">
+        <v>1.620545664387137</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.441718232089897</v>
+        <v>1.715300655724178</v>
       </c>
       <c r="C13">
-        <v>1.363208621116655</v>
+        <v>0.275636569544389</v>
       </c>
       <c r="D13">
-        <v>0.01922464086357678</v>
+        <v>0.00647855053502866</v>
       </c>
       <c r="E13">
-        <v>0.02913159734469062</v>
+        <v>0.01429899329936646</v>
       </c>
       <c r="F13">
-        <v>2.991874453027521</v>
+        <v>1.715852618822609</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1331062289397522</v>
+      </c>
+      <c r="I13">
+        <v>0.02143457530882209</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>1.464060816892527</v>
-      </c>
-      <c r="J13">
-        <v>0.0508816805312815</v>
-      </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.9922621144626689</v>
       </c>
       <c r="L13">
-        <v>0.3229339577679582</v>
+        <v>0.05528303110030919</v>
       </c>
       <c r="M13">
-        <v>0.9226829587440406</v>
+        <v>1.85671964391338</v>
       </c>
       <c r="N13">
-        <v>0.9863035887989469</v>
+        <v>0.08791718447735519</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2763031495280224</v>
+      </c>
+      <c r="P13">
+        <v>1.529146094932941</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.342821170036359</v>
+        <v>1.633479832827476</v>
       </c>
       <c r="C14">
-        <v>1.336737609279396</v>
+        <v>0.2690832539792325</v>
       </c>
       <c r="D14">
-        <v>0.01875332186139289</v>
+        <v>0.00567270250996188</v>
       </c>
       <c r="E14">
-        <v>0.02887182816342015</v>
+        <v>0.01554348493173396</v>
       </c>
       <c r="F14">
-        <v>2.955112351469921</v>
+        <v>1.594093670269942</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1837196640830712</v>
+      </c>
+      <c r="I14">
+        <v>0.0229999374684855</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>1.449860278806085</v>
-      </c>
-      <c r="J14">
-        <v>0.05085607183649721</v>
-      </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.9257690478609177</v>
       </c>
       <c r="L14">
-        <v>0.3183823650439876</v>
+        <v>0.06255110994725754</v>
       </c>
       <c r="M14">
-        <v>0.9065184994806685</v>
+        <v>1.77788502928621</v>
       </c>
       <c r="N14">
-        <v>0.9965710930198668</v>
+        <v>0.06736326834928263</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2492992205260016</v>
+      </c>
+      <c r="P14">
+        <v>1.478105956724377</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.282450923170586</v>
+        <v>1.602247713483564</v>
       </c>
       <c r="C15">
-        <v>1.320584455425546</v>
+        <v>0.265904885282481</v>
       </c>
       <c r="D15">
-        <v>0.01846741667365848</v>
+        <v>0.00547509652713174</v>
       </c>
       <c r="E15">
-        <v>0.02871339231178105</v>
+        <v>0.01590135335938747</v>
       </c>
       <c r="F15">
-        <v>2.932770484751785</v>
+        <v>1.560522439468045</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1968258950467856</v>
+      </c>
+      <c r="I15">
+        <v>0.02385102609803091</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>1.441252858208529</v>
-      </c>
-      <c r="J15">
-        <v>0.05084061206313883</v>
-      </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.9080197653345294</v>
       </c>
       <c r="L15">
-        <v>0.3156068519704291</v>
+        <v>0.06443398471264672</v>
       </c>
       <c r="M15">
-        <v>0.8966529707977955</v>
+        <v>1.746847330319383</v>
       </c>
       <c r="N15">
-        <v>1.002910930928053</v>
+        <v>0.06268447480899653</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2413152488154431</v>
+      </c>
+      <c r="P15">
+        <v>1.468787679077906</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.939497709328236</v>
+        <v>1.506597923244158</v>
       </c>
       <c r="C16">
-        <v>1.228899774216018</v>
+        <v>0.2485122954412589</v>
       </c>
       <c r="D16">
-        <v>0.01686910174159806</v>
+        <v>0.005199887933239111</v>
       </c>
       <c r="E16">
-        <v>0.02781511953046767</v>
+        <v>0.01498460659550993</v>
       </c>
       <c r="F16">
-        <v>2.807315200089675</v>
+        <v>1.534537646414449</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1871326523142756</v>
+      </c>
+      <c r="I16">
+        <v>0.02725087848650354</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>1.39325981866746</v>
-      </c>
-      <c r="J16">
-        <v>0.05075535692203736</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.9006371332329053</v>
       </c>
       <c r="L16">
-        <v>0.2998840274370735</v>
+        <v>0.06103011887896059</v>
       </c>
       <c r="M16">
-        <v>0.8406361736508359</v>
+        <v>1.640976858653261</v>
       </c>
       <c r="N16">
-        <v>1.039996244217043</v>
+        <v>0.0613408964227915</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2284106051288113</v>
+      </c>
+      <c r="P16">
+        <v>1.498264766930063</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.731611524781329</v>
+        <v>1.47640172859127</v>
       </c>
       <c r="C17">
-        <v>1.173385505280635</v>
+        <v>0.2387822281352783</v>
       </c>
       <c r="D17">
-        <v>0.01592158196679705</v>
+        <v>0.005416433452591463</v>
       </c>
       <c r="E17">
-        <v>0.02727188431244798</v>
+        <v>0.01345065511704036</v>
       </c>
       <c r="F17">
-        <v>2.732526619782291</v>
+        <v>1.578324913083179</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1510535760588567</v>
+      </c>
+      <c r="I17">
+        <v>0.02908604611745691</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>1.364944959570494</v>
-      </c>
-      <c r="J17">
-        <v>0.05070590139689024</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.929628985950167</v>
       </c>
       <c r="L17">
-        <v>0.2903924981365975</v>
+        <v>0.05409740014804143</v>
       </c>
       <c r="M17">
-        <v>0.806705101597089</v>
+        <v>1.60160887592744</v>
       </c>
       <c r="N17">
-        <v>1.063396279156215</v>
+        <v>0.07056465620898678</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2325990114277623</v>
+      </c>
+      <c r="P17">
+        <v>1.547007545063586</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.612894490521455</v>
+        <v>1.501303367652383</v>
       </c>
       <c r="C18">
-        <v>1.141702667912909</v>
+        <v>0.2337267909152274</v>
       </c>
       <c r="D18">
-        <v>0.01538767318122325</v>
+        <v>0.006039658430715633</v>
       </c>
       <c r="E18">
-        <v>0.02696200763864098</v>
+        <v>0.01216828888139898</v>
       </c>
       <c r="F18">
-        <v>2.690261745820195</v>
+        <v>1.693461384841342</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.09854012419358327</v>
+      </c>
+      <c r="I18">
+        <v>0.0292128898397932</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>1.349049872805494</v>
-      </c>
-      <c r="J18">
-        <v>0.05067845186428777</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9978944864369979</v>
       </c>
       <c r="L18">
-        <v>0.2849863898916425</v>
+        <v>0.04600543763956111</v>
       </c>
       <c r="M18">
-        <v>0.7873370198857756</v>
+        <v>1.615584774533176</v>
       </c>
       <c r="N18">
-        <v>1.077085059817072</v>
+        <v>0.09272109765454672</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.252679585110112</v>
+      </c>
+      <c r="P18">
+        <v>1.626713721983506</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.572839484628332</v>
+        <v>1.562991043620144</v>
       </c>
       <c r="C19">
-        <v>1.131015985459157</v>
+        <v>0.2340713393951148</v>
       </c>
       <c r="D19">
-        <v>0.01520870947919661</v>
+        <v>0.007138368766316461</v>
       </c>
       <c r="E19">
-        <v>0.0268575045983086</v>
+        <v>0.01259425398878888</v>
       </c>
       <c r="F19">
-        <v>2.676076354658022</v>
+        <v>1.855492858230818</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.05207404869831578</v>
+      </c>
+      <c r="I19">
+        <v>0.02855368187022123</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>1.343733076606512</v>
-      </c>
-      <c r="J19">
-        <v>0.05066932452247741</v>
-      </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.091232486552741</v>
       </c>
       <c r="L19">
-        <v>0.2831647978077854</v>
+        <v>0.04162375414313502</v>
       </c>
       <c r="M19">
-        <v>0.7808037605761982</v>
+        <v>1.668402293499355</v>
       </c>
       <c r="N19">
-        <v>1.08175848503825</v>
+        <v>0.1286798245213205</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2846450788453723</v>
+      </c>
+      <c r="P19">
+        <v>1.730471527998183</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.75365156148348</v>
+        <v>1.737630062921426</v>
       </c>
       <c r="C20">
-        <v>1.17926901505723</v>
+        <v>0.2471393168428335</v>
       </c>
       <c r="D20">
-        <v>0.01602127766612682</v>
+        <v>0.00927550055827453</v>
       </c>
       <c r="E20">
-        <v>0.02732943935747567</v>
+        <v>0.01753359959898848</v>
       </c>
       <c r="F20">
-        <v>2.740409174422297</v>
+        <v>2.157533179456607</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.02076847513241198</v>
+      </c>
+      <c r="I20">
+        <v>0.02465186695233701</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>1.367918159933495</v>
-      </c>
-      <c r="J20">
-        <v>0.05071106186553109</v>
-      </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.261325777245474</v>
       </c>
       <c r="L20">
-        <v>0.2913973107677208</v>
+        <v>0.04676521932605837</v>
       </c>
       <c r="M20">
-        <v>0.8103015442736989</v>
+        <v>1.834757848182733</v>
       </c>
       <c r="N20">
-        <v>1.06088133723074</v>
+        <v>0.2010667533324977</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.3500525785497786</v>
+      </c>
+      <c r="P20">
+        <v>1.904146866797973</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.371826066982521</v>
+        <v>1.958282810830667</v>
       </c>
       <c r="C21">
-        <v>1.344499919783459</v>
+        <v>0.2805980769600751</v>
       </c>
       <c r="D21">
-        <v>0.01889117132491336</v>
+        <v>0.01053149100027539</v>
       </c>
       <c r="E21">
-        <v>0.02894798500444473</v>
+        <v>0.01996482656017307</v>
       </c>
       <c r="F21">
-        <v>2.965873301237593</v>
+        <v>2.30943481595169</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.01509607107033067</v>
+      </c>
+      <c r="I21">
+        <v>0.01867872703857554</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>1.454012248384814</v>
-      </c>
-      <c r="J21">
-        <v>0.05086354624999601</v>
-      </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.333963385885056</v>
       </c>
       <c r="L21">
-        <v>0.3197166585270708</v>
+        <v>0.0515077921794731</v>
       </c>
       <c r="M21">
-        <v>0.9112588903136043</v>
+        <v>2.069343712872296</v>
       </c>
       <c r="N21">
-        <v>0.9935446573421984</v>
+        <v>0.22855754124366</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3957823706418537</v>
+      </c>
+      <c r="P21">
+        <v>1.910756168960944</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.784922435446163</v>
+        <v>2.101551374411372</v>
       </c>
       <c r="C22">
-        <v>1.455164244981347</v>
+        <v>0.3019004002746613</v>
       </c>
       <c r="D22">
-        <v>0.02088885661719786</v>
+        <v>0.0111602451410775</v>
       </c>
       <c r="E22">
-        <v>0.03003542192922026</v>
+        <v>0.02126667605675081</v>
       </c>
       <c r="F22">
-        <v>3.120973011841329</v>
+        <v>2.402448536752985</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.01210599509285459</v>
+      </c>
+      <c r="I22">
+        <v>0.01502929515332152</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>1.514280096255177</v>
-      </c>
-      <c r="J22">
-        <v>0.05097319388491606</v>
-      </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.378484440427897</v>
       </c>
       <c r="L22">
-        <v>0.3387737252801486</v>
+        <v>0.05422981293090245</v>
       </c>
       <c r="M22">
-        <v>0.9788062547569183</v>
+        <v>2.220773478374554</v>
       </c>
       <c r="N22">
-        <v>0.9517805806883715</v>
+        <v>0.2426165239922398</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.4234645100372418</v>
+      </c>
+      <c r="P22">
+        <v>1.911048392916697</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.563536775149032</v>
+        <v>2.028956109052501</v>
       </c>
       <c r="C23">
-        <v>1.395831057062537</v>
+        <v>0.2896312229541991</v>
       </c>
       <c r="D23">
-        <v>0.01981025508224121</v>
+        <v>0.01071054833148111</v>
       </c>
       <c r="E23">
-        <v>0.02945197418836099</v>
+        <v>0.02057738304298162</v>
       </c>
       <c r="F23">
-        <v>3.037429744025843</v>
+        <v>2.358395687587077</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.01363151146016339</v>
+      </c>
+      <c r="I23">
+        <v>0.01653974264041302</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>1.48172089808493</v>
-      </c>
-      <c r="J23">
-        <v>0.05091369905724896</v>
-      </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.358866550961139</v>
       </c>
       <c r="L23">
-        <v>0.3285484850676568</v>
+        <v>0.05286096485327185</v>
       </c>
       <c r="M23">
-        <v>0.9425988440331921</v>
+        <v>2.141775598610764</v>
       </c>
       <c r="N23">
-        <v>0.9738551194734271</v>
+        <v>0.2346839334398396</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.4090160907589606</v>
+      </c>
+      <c r="P23">
+        <v>1.915574998782247</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.743684786344488</v>
+        <v>1.748594960464743</v>
       </c>
       <c r="C24">
-        <v>1.176608359374029</v>
+        <v>0.2455406063525345</v>
       </c>
       <c r="D24">
-        <v>0.01597617174409294</v>
+        <v>0.009226300537935828</v>
       </c>
       <c r="E24">
-        <v>0.02730341120261226</v>
+        <v>0.01800758020801663</v>
       </c>
       <c r="F24">
-        <v>2.736843202389778</v>
+        <v>2.184564424880719</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.02041389166351482</v>
+      </c>
+      <c r="I24">
+        <v>0.02396265482686566</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>1.366572787037839</v>
-      </c>
-      <c r="J24">
-        <v>0.05070872576722607</v>
-      </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.27864931176655</v>
       </c>
       <c r="L24">
-        <v>0.2909428778621361</v>
+        <v>0.04759353777265041</v>
       </c>
       <c r="M24">
-        <v>0.8086751611301324</v>
+        <v>1.841448608559602</v>
       </c>
       <c r="N24">
-        <v>1.062017610155984</v>
+        <v>0.2055321557874663</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3539872457380966</v>
+      </c>
+      <c r="P24">
+        <v>1.925945198664536</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.891319692098307</v>
+        <v>1.447898543712967</v>
       </c>
       <c r="C25">
-        <v>0.9493968247024611</v>
+        <v>0.1997462482618459</v>
       </c>
       <c r="D25">
-        <v>0.01225430055188426</v>
+        <v>0.007685024027288989</v>
       </c>
       <c r="E25">
-        <v>0.02508160638940282</v>
+        <v>0.01532411466209371</v>
       </c>
       <c r="F25">
-        <v>2.440879464539108</v>
+        <v>2.001501270746459</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.02963456494948713</v>
+      </c>
+      <c r="I25">
+        <v>0.03415309163426539</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>1.257081292640777</v>
-      </c>
-      <c r="J25">
-        <v>0.05052526071619567</v>
-      </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.193908886725929</v>
       </c>
       <c r="L25">
-        <v>0.2523783485982563</v>
+        <v>0.04199294033247192</v>
       </c>
       <c r="M25">
-        <v>0.6697724237178662</v>
+        <v>1.521055902260713</v>
       </c>
       <c r="N25">
-        <v>1.165810318456941</v>
+        <v>0.1744384262622987</v>
       </c>
       <c r="O25">
+        <v>0.2950527019936047</v>
+      </c>
+      <c r="P25">
+        <v>1.93898229573692</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.236673423544204</v>
+        <v>1.091185349173145</v>
       </c>
       <c r="C2">
-        <v>0.1652122565128735</v>
+        <v>0.1967564910545718</v>
       </c>
       <c r="D2">
-        <v>0.006328559586677329</v>
+        <v>0.01059642405446937</v>
       </c>
       <c r="E2">
-        <v>0.01341647733921647</v>
+        <v>0.01436328966900735</v>
       </c>
       <c r="F2">
-        <v>1.88373286895019</v>
+        <v>1.624019943147246</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.03780302080123787</v>
+        <v>0.03102374214649539</v>
       </c>
       <c r="I2">
-        <v>0.04231771570895182</v>
+        <v>0.0316236898936828</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>1.142965697954473</v>
+        <v>0.9348707866207775</v>
       </c>
       <c r="L2">
-        <v>0.038099992632743</v>
+        <v>0.3555123022985711</v>
       </c>
       <c r="M2">
-        <v>1.291913383585751</v>
+        <v>0.3440995404332874</v>
       </c>
       <c r="N2">
-        <v>0.1507747128199242</v>
+        <v>0.03552068214455861</v>
       </c>
       <c r="O2">
-        <v>0.2527024575627301</v>
+        <v>1.226061337695029</v>
       </c>
       <c r="P2">
-        <v>1.961904347293228</v>
+        <v>0.177014986628663</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2407271442057635</v>
+      </c>
+      <c r="R2">
+        <v>1.697520502473168</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.088447975328194</v>
+        <v>0.9612296284865067</v>
       </c>
       <c r="C3">
-        <v>0.1436153321317875</v>
+        <v>0.1709506210057867</v>
       </c>
       <c r="D3">
-        <v>0.005582593319530815</v>
+        <v>0.00905640392387852</v>
       </c>
       <c r="E3">
-        <v>0.01213199777198515</v>
+        <v>0.01310861434883481</v>
       </c>
       <c r="F3">
-        <v>1.797583237699541</v>
+        <v>1.562715243775159</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04424820549859709</v>
+        <v>0.03640211710149854</v>
       </c>
       <c r="I3">
-        <v>0.04936150912816784</v>
+        <v>0.03699167411180992</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>1.103189234637561</v>
+        <v>0.9121999509751859</v>
       </c>
       <c r="L3">
-        <v>0.03533422608006287</v>
+        <v>0.3527001771248877</v>
       </c>
       <c r="M3">
-        <v>1.135039197263978</v>
+        <v>0.3319656297966844</v>
       </c>
       <c r="N3">
-        <v>0.1354200916228194</v>
+        <v>0.03315396007057059</v>
       </c>
       <c r="O3">
-        <v>0.223639269974047</v>
+        <v>1.077479159349849</v>
       </c>
       <c r="P3">
-        <v>1.971395566843015</v>
+        <v>0.1596088384236509</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2132221201196849</v>
+      </c>
+      <c r="R3">
+        <v>1.723786249532985</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9973567268254726</v>
+        <v>0.8810842339332225</v>
       </c>
       <c r="C4">
-        <v>0.1306578651950758</v>
+        <v>0.1554972764213147</v>
       </c>
       <c r="D4">
-        <v>0.005137752606193757</v>
+        <v>0.00813361955561831</v>
       </c>
       <c r="E4">
-        <v>0.011348787047333</v>
+        <v>0.01234092122468144</v>
       </c>
       <c r="F4">
-        <v>1.745166023973084</v>
+        <v>1.525357286133087</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.04860848085812108</v>
+        <v>0.04004705778641915</v>
       </c>
       <c r="I4">
-        <v>0.05415568246906366</v>
+        <v>0.04066777685422363</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>1.078855657513756</v>
+        <v>0.8982471539363601</v>
       </c>
       <c r="L4">
-        <v>0.03362218165091058</v>
+        <v>0.3506967167980832</v>
       </c>
       <c r="M4">
-        <v>1.039045727342369</v>
+        <v>0.3253071431160599</v>
       </c>
       <c r="N4">
-        <v>0.1260503959778632</v>
+        <v>0.03168565188427497</v>
       </c>
       <c r="O4">
-        <v>0.2058147454078068</v>
+        <v>0.9863843375651982</v>
       </c>
       <c r="P4">
-        <v>1.977348176930207</v>
+        <v>0.1490079331750067</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1963273520290336</v>
+      </c>
+      <c r="R4">
+        <v>1.740105253110201</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9592612252781976</v>
+        <v>0.8474794407231911</v>
       </c>
       <c r="C5">
-        <v>0.1256571692372859</v>
+        <v>0.1495078250416526</v>
       </c>
       <c r="D5">
-        <v>0.004986058827242346</v>
+        <v>0.007795839162618279</v>
       </c>
       <c r="E5">
-        <v>0.01102862893900625</v>
+        <v>0.01202648481828295</v>
       </c>
       <c r="F5">
-        <v>1.722465913562218</v>
+        <v>1.508936012607549</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.05049784052637873</v>
+        <v>0.04162810600717037</v>
       </c>
       <c r="I5">
-        <v>0.05634043330771821</v>
+        <v>0.04238334076316619</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>1.067888408817993</v>
+        <v>0.8916571209752817</v>
       </c>
       <c r="L5">
-        <v>0.03289848059210509</v>
+        <v>0.3494227674343691</v>
       </c>
       <c r="M5">
-        <v>0.999537770721588</v>
+        <v>0.3225121879215926</v>
       </c>
       <c r="N5">
-        <v>0.1223469055634396</v>
+        <v>0.03106611246053648</v>
       </c>
       <c r="O5">
-        <v>0.1984730248720936</v>
+        <v>0.9488604057354166</v>
       </c>
       <c r="P5">
-        <v>1.978517719559292</v>
+        <v>0.144809717331583</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1893640669130257</v>
+      </c>
+      <c r="R5">
+        <v>1.745806342042862</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9517749990127982</v>
+        <v>0.8408520897944243</v>
       </c>
       <c r="C6">
-        <v>0.1250876530423142</v>
+        <v>0.1487835913368514</v>
       </c>
       <c r="D6">
-        <v>0.004993641461128462</v>
+        <v>0.007780396628547237</v>
       </c>
       <c r="E6">
-        <v>0.01097323469093681</v>
+        <v>0.01197204186946621</v>
       </c>
       <c r="F6">
-        <v>1.716929980859334</v>
+        <v>1.504671407208207</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.05083487650024265</v>
+        <v>0.04191043223855218</v>
       </c>
       <c r="I6">
-        <v>0.05685966480672455</v>
+        <v>0.0428347897547452</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>1.064760820958377</v>
+        <v>0.8894707177921717</v>
       </c>
       <c r="L6">
-        <v>0.03275160472078742</v>
+        <v>0.3487342105409752</v>
       </c>
       <c r="M6">
-        <v>0.9924200277199589</v>
+        <v>0.3217185395481437</v>
       </c>
       <c r="N6">
-        <v>0.1218574395304017</v>
+        <v>0.0309426985025496</v>
       </c>
       <c r="O6">
-        <v>0.1971546038364203</v>
+        <v>0.9421104843654859</v>
       </c>
       <c r="P6">
-        <v>1.977144883421616</v>
+        <v>0.1442383888246681</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1881153427403959</v>
+      </c>
+      <c r="R6">
+        <v>1.745542627033295</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9936675785084219</v>
+        <v>0.8777799756875879</v>
       </c>
       <c r="C7">
-        <v>0.1312923625595062</v>
+        <v>0.1561416772042747</v>
       </c>
       <c r="D7">
-        <v>0.005224900925879794</v>
+        <v>0.008239838950149903</v>
       </c>
       <c r="E7">
-        <v>0.01133823920003429</v>
+        <v>0.01233057511076652</v>
       </c>
       <c r="F7">
-        <v>1.740018000670403</v>
+        <v>1.520934469350252</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.04867946755929831</v>
+        <v>0.040106919124689</v>
       </c>
       <c r="I7">
-        <v>0.05457322146602284</v>
+        <v>0.04110820369281942</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>1.075137292216759</v>
+        <v>0.8951863947982659</v>
       </c>
       <c r="L7">
-        <v>0.03354020723078932</v>
+        <v>0.3494122383066198</v>
       </c>
       <c r="M7">
-        <v>1.036973788537637</v>
+        <v>0.324318690259588</v>
       </c>
       <c r="N7">
-        <v>0.1263418888346735</v>
+        <v>0.03162230206044736</v>
       </c>
       <c r="O7">
-        <v>0.2054431398729548</v>
+        <v>0.9844528207961503</v>
       </c>
       <c r="P7">
-        <v>1.973097712058077</v>
+        <v>0.1492926879429746</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.19598083986007</v>
+      </c>
+      <c r="R7">
+        <v>1.736901758610216</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.18132894325467</v>
+        <v>1.042645788180181</v>
       </c>
       <c r="C8">
-        <v>0.1586333928412387</v>
+        <v>0.1887425226917259</v>
       </c>
       <c r="D8">
-        <v>0.006187964014081615</v>
+        <v>0.01021045388655395</v>
       </c>
       <c r="E8">
-        <v>0.01296375676961592</v>
+        <v>0.01392171904433859</v>
       </c>
       <c r="F8">
-        <v>1.847524917173004</v>
+        <v>1.597300915400169</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.03999252506237827</v>
+        <v>0.03284986320774252</v>
       </c>
       <c r="I8">
-        <v>0.04511018811574896</v>
+        <v>0.03389483624413536</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>1.1245144166625</v>
+        <v>0.9231692199544739</v>
       </c>
       <c r="L8">
-        <v>0.03705286898361226</v>
+        <v>0.3530223995803823</v>
       </c>
       <c r="M8">
-        <v>1.235683997428339</v>
+        <v>0.3384232321694327</v>
       </c>
       <c r="N8">
-        <v>0.1459230553661186</v>
+        <v>0.03463574845746864</v>
       </c>
       <c r="O8">
-        <v>0.2423113416515577</v>
+        <v>1.172888781680399</v>
       </c>
       <c r="P8">
-        <v>1.959594442070959</v>
+        <v>0.1714514152646771</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2309065344432071</v>
+      </c>
+      <c r="R8">
+        <v>1.70234405923253</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.554866519226863</v>
+        <v>1.368567364934279</v>
       </c>
       <c r="C9">
-        <v>0.2136826846898998</v>
+        <v>0.2547858982258902</v>
       </c>
       <c r="D9">
-        <v>0.008030929135902198</v>
+        <v>0.01406590134313745</v>
       </c>
       <c r="E9">
-        <v>0.01623044510762917</v>
+        <v>0.01709526673128714</v>
       </c>
       <c r="F9">
-        <v>2.071291925156331</v>
+        <v>1.757134916675952</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.02623351690887854</v>
+        <v>0.02140230458393533</v>
       </c>
       <c r="I9">
-        <v>0.02985379483766337</v>
+        <v>0.02225798916458199</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.228613354381586</v>
+        <v>0.9831535086277938</v>
       </c>
       <c r="L9">
-        <v>0.04400353386592659</v>
+        <v>0.3600146658004491</v>
       </c>
       <c r="M9">
-        <v>1.631434131467756</v>
+        <v>0.3742809101473554</v>
       </c>
       <c r="N9">
-        <v>0.1842453547415559</v>
+        <v>0.04055823139890791</v>
       </c>
       <c r="O9">
-        <v>0.3153626839029968</v>
+        <v>1.546617574988545</v>
       </c>
       <c r="P9">
-        <v>1.941700485375904</v>
+        <v>0.2150527253314323</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2998765591210457</v>
+      </c>
+      <c r="R9">
+        <v>1.641823995345391</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.817238184718434</v>
+        <v>1.597104301513895</v>
       </c>
       <c r="C10">
-        <v>0.2562492677914463</v>
+        <v>0.3054130065455354</v>
       </c>
       <c r="D10">
-        <v>0.009343007889853538</v>
+        <v>0.01678737222935212</v>
       </c>
       <c r="E10">
-        <v>0.01807282440192015</v>
+        <v>0.01885313906311836</v>
       </c>
       <c r="F10">
-        <v>2.210344989789633</v>
+        <v>1.853707263349818</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.01891737854233622</v>
+        <v>0.01538764167685613</v>
       </c>
       <c r="I10">
-        <v>0.02161247759151053</v>
+        <v>0.01613849465777406</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>1.288829238102025</v>
+        <v>1.014686449078638</v>
       </c>
       <c r="L10">
-        <v>0.04811076896398614</v>
+        <v>0.3593055815573791</v>
       </c>
       <c r="M10">
-        <v>1.914782941730124</v>
+        <v>0.3997309712387604</v>
       </c>
       <c r="N10">
-        <v>0.2060229758352818</v>
+        <v>0.04427039752899375</v>
       </c>
       <c r="O10">
-        <v>0.3639155641716982</v>
+        <v>1.813861440722093</v>
       </c>
       <c r="P10">
-        <v>1.908877645215128</v>
+        <v>0.2401079040246259</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3455592446221445</v>
+      </c>
+      <c r="R10">
+        <v>1.584941879807559</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.835800929054017</v>
+        <v>1.623088027655143</v>
       </c>
       <c r="C11">
-        <v>0.2745313652910966</v>
+        <v>0.3229596918659752</v>
       </c>
       <c r="D11">
-        <v>0.008605936065997355</v>
+        <v>0.0155892738094181</v>
       </c>
       <c r="E11">
-        <v>0.01491081091337598</v>
+        <v>0.01568726684559607</v>
       </c>
       <c r="F11">
-        <v>2.042795593276949</v>
+        <v>1.71314560920851</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.03699878868685857</v>
+        <v>0.03360487868281936</v>
       </c>
       <c r="I11">
-        <v>0.02038822686647102</v>
+        <v>0.01544259678021742</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.181251492874502</v>
+        <v>0.9300127584714488</v>
       </c>
       <c r="L11">
-        <v>0.04562251257383432</v>
+        <v>0.3239763739767483</v>
       </c>
       <c r="M11">
-        <v>1.957248942372303</v>
+        <v>0.3727552567743615</v>
       </c>
       <c r="N11">
-        <v>0.1599719950054705</v>
+        <v>0.04469025640750601</v>
       </c>
       <c r="O11">
-        <v>0.3403621849235563</v>
+        <v>1.859613310584308</v>
       </c>
       <c r="P11">
-        <v>1.7384089838569</v>
+        <v>0.189306154337828</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.3232069667579793</v>
+      </c>
+      <c r="R11">
+        <v>1.458929536395829</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.799958701988572</v>
+        <v>1.600346927064834</v>
       </c>
       <c r="C12">
-        <v>0.2795583101833188</v>
+        <v>0.3254688035643767</v>
       </c>
       <c r="D12">
-        <v>0.007602335001994476</v>
+        <v>0.01387436584398216</v>
       </c>
       <c r="E12">
-        <v>0.01385105827635291</v>
+        <v>0.01464429427448971</v>
       </c>
       <c r="F12">
-        <v>1.884153069516017</v>
+        <v>1.584165394864115</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07609278553169219</v>
+        <v>0.07263255581603545</v>
       </c>
       <c r="I12">
-        <v>0.02025597487197928</v>
+        <v>0.01530997386683008</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.087067720040352</v>
+        <v>0.8592628349159099</v>
       </c>
       <c r="L12">
-        <v>0.04845589381353932</v>
+        <v>0.297576083996411</v>
       </c>
       <c r="M12">
-        <v>1.934133527752209</v>
+        <v>0.3466796049359289</v>
       </c>
       <c r="N12">
-        <v>0.1216892511795322</v>
+        <v>0.04981236057557581</v>
       </c>
       <c r="O12">
-        <v>0.3113711947784026</v>
+        <v>1.842666009429166</v>
       </c>
       <c r="P12">
-        <v>1.620545664387137</v>
+        <v>0.1465650106791685</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2957699776331282</v>
+      </c>
+      <c r="R12">
+        <v>1.379337178104592</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.715300655724178</v>
+        <v>1.534382512247703</v>
       </c>
       <c r="C13">
-        <v>0.275636569544389</v>
+        <v>0.317555526253642</v>
       </c>
       <c r="D13">
-        <v>0.00647855053502866</v>
+        <v>0.01186324216709167</v>
       </c>
       <c r="E13">
-        <v>0.01429899329936646</v>
+        <v>0.01512389713865092</v>
       </c>
       <c r="F13">
-        <v>1.715852618822609</v>
+        <v>1.450037813495953</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1331062289397522</v>
+        <v>0.1294023365922072</v>
       </c>
       <c r="I13">
-        <v>0.02143457530882209</v>
+        <v>0.01614226835512333</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>0.9922621144626689</v>
+        <v>0.7904166029204518</v>
       </c>
       <c r="L13">
-        <v>0.05528303110030919</v>
+        <v>0.2741651132028693</v>
       </c>
       <c r="M13">
-        <v>1.85671964391338</v>
+        <v>0.3184643546997989</v>
       </c>
       <c r="N13">
-        <v>0.08791718447735519</v>
+        <v>0.05854983338935327</v>
       </c>
       <c r="O13">
-        <v>0.2763031495280224</v>
+        <v>1.77414965376164</v>
       </c>
       <c r="P13">
-        <v>1.529146094932941</v>
+        <v>0.1083734083960621</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2626180749048466</v>
+      </c>
+      <c r="R13">
+        <v>1.324842527490095</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.633479832827476</v>
+        <v>1.468097500621724</v>
       </c>
       <c r="C14">
-        <v>0.2690832539792325</v>
+        <v>0.3075642714873368</v>
       </c>
       <c r="D14">
-        <v>0.00567270250996188</v>
+        <v>0.01037867942762816</v>
       </c>
       <c r="E14">
-        <v>0.01554348493173396</v>
+        <v>0.0163958894086047</v>
       </c>
       <c r="F14">
-        <v>1.594093670269942</v>
+        <v>1.353909198110486</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1837196640830712</v>
+        <v>0.1797607301917168</v>
       </c>
       <c r="I14">
-        <v>0.0229999374684855</v>
+        <v>0.01731128508366009</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.9257690478609177</v>
+        <v>0.7430016930796555</v>
       </c>
       <c r="L14">
-        <v>0.06255110994725754</v>
+        <v>0.2588249382953478</v>
       </c>
       <c r="M14">
-        <v>1.77788502928621</v>
+        <v>0.2980048151702874</v>
       </c>
       <c r="N14">
-        <v>0.06736326834928263</v>
+        <v>0.06692137408550991</v>
       </c>
       <c r="O14">
-        <v>0.2492992205260016</v>
+        <v>1.702720714168464</v>
       </c>
       <c r="P14">
-        <v>1.478105956724377</v>
+        <v>0.08483432067036034</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2370897882599046</v>
+      </c>
+      <c r="R14">
+        <v>1.298535828825376</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.602247713483564</v>
+        <v>1.441883677769937</v>
       </c>
       <c r="C15">
-        <v>0.265904885282481</v>
+        <v>0.3032651861325633</v>
       </c>
       <c r="D15">
-        <v>0.00547509652713174</v>
+        <v>0.009987134183170099</v>
       </c>
       <c r="E15">
-        <v>0.01590135335938747</v>
+        <v>0.01676298922217434</v>
       </c>
       <c r="F15">
-        <v>1.560522439468045</v>
+        <v>1.327787915701535</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1968258950467856</v>
+        <v>0.1927524730514421</v>
       </c>
       <c r="I15">
-        <v>0.02385102609803091</v>
+        <v>0.01800101078191307</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.9080197653345294</v>
+        <v>0.7306827473179993</v>
       </c>
       <c r="L15">
-        <v>0.06443398471264672</v>
+        <v>0.2551323835426338</v>
       </c>
       <c r="M15">
-        <v>1.746847330319383</v>
+        <v>0.2922941193530804</v>
       </c>
       <c r="N15">
-        <v>0.06268447480899653</v>
+        <v>0.06901373104052411</v>
       </c>
       <c r="O15">
-        <v>0.2413152488154431</v>
+        <v>1.674065656256147</v>
       </c>
       <c r="P15">
-        <v>1.468787679077906</v>
+        <v>0.07942147648692099</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2295462556396792</v>
+      </c>
+      <c r="R15">
+        <v>1.295484609594578</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.506597923244158</v>
+        <v>1.356687879698995</v>
       </c>
       <c r="C16">
-        <v>0.2485122954412589</v>
+        <v>0.283248501231526</v>
       </c>
       <c r="D16">
-        <v>0.005199887933239111</v>
+        <v>0.009352885803068034</v>
       </c>
       <c r="E16">
-        <v>0.01498460659550993</v>
+        <v>0.01586949405610127</v>
       </c>
       <c r="F16">
-        <v>1.534537646414449</v>
+        <v>1.312059738785891</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1871326523142756</v>
+        <v>0.182529413736134</v>
       </c>
       <c r="I16">
-        <v>0.02725087848650354</v>
+        <v>0.02060299604854343</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.9006371332329053</v>
+        <v>0.7295988812755567</v>
       </c>
       <c r="L16">
-        <v>0.06103011887896059</v>
+        <v>0.2578367241621216</v>
       </c>
       <c r="M16">
-        <v>1.640976858653261</v>
+        <v>0.2878626482368567</v>
       </c>
       <c r="N16">
-        <v>0.0613408964227915</v>
+        <v>0.06519987756105294</v>
       </c>
       <c r="O16">
-        <v>0.2284106051288113</v>
+        <v>1.573180521749805</v>
       </c>
       <c r="P16">
-        <v>1.498264766930063</v>
+        <v>0.07779324771797036</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2173884088946458</v>
+      </c>
+      <c r="R16">
+        <v>1.326331248669064</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.47640172859127</v>
+        <v>1.326351761441657</v>
       </c>
       <c r="C17">
-        <v>0.2387822281352783</v>
+        <v>0.2733456958748945</v>
       </c>
       <c r="D17">
-        <v>0.005416433452591463</v>
+        <v>0.009642169780278209</v>
       </c>
       <c r="E17">
-        <v>0.01345065511704036</v>
+        <v>0.01433977870661307</v>
       </c>
       <c r="F17">
-        <v>1.578324913083179</v>
+        <v>1.350521225474196</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1510535760588567</v>
+        <v>0.1461742800264574</v>
       </c>
       <c r="I17">
-        <v>0.02908604611745691</v>
+        <v>0.02203373006649567</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234428</v>
       </c>
       <c r="K17">
-        <v>0.929628985950167</v>
+        <v>0.7536320380237527</v>
       </c>
       <c r="L17">
-        <v>0.05409740014804143</v>
+        <v>0.2683255253000993</v>
       </c>
       <c r="M17">
-        <v>1.60160887592744</v>
+        <v>0.2949238270709706</v>
       </c>
       <c r="N17">
-        <v>0.07056465620898678</v>
+        <v>0.05743199527786302</v>
       </c>
       <c r="O17">
-        <v>0.2325990114277623</v>
+        <v>1.533735679478951</v>
       </c>
       <c r="P17">
-        <v>1.547007545063586</v>
+        <v>0.08831162322237418</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2213941325683493</v>
+      </c>
+      <c r="R17">
+        <v>1.363700618768167</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.501303367652383</v>
+        <v>1.341806529658413</v>
       </c>
       <c r="C18">
-        <v>0.2337267909152274</v>
+        <v>0.2701279417700277</v>
       </c>
       <c r="D18">
-        <v>0.006039658430715633</v>
+        <v>0.01071364371839323</v>
       </c>
       <c r="E18">
-        <v>0.01216828888139898</v>
+        <v>0.01304785182682222</v>
       </c>
       <c r="F18">
-        <v>1.693461384841342</v>
+        <v>1.445236751977902</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.09854012419358327</v>
+        <v>0.09363229534751838</v>
       </c>
       <c r="I18">
-        <v>0.0292128898397932</v>
+        <v>0.0220510908761522</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.0759585914630927</v>
       </c>
       <c r="K18">
-        <v>0.9978944864369979</v>
+        <v>0.8057010523912425</v>
       </c>
       <c r="L18">
-        <v>0.04600543763956111</v>
+        <v>0.2883738894743075</v>
       </c>
       <c r="M18">
-        <v>1.615584774533176</v>
+        <v>0.3136144598007853</v>
       </c>
       <c r="N18">
-        <v>0.09272109765454672</v>
+        <v>0.04791856110322712</v>
       </c>
       <c r="O18">
-        <v>0.252679585110112</v>
+        <v>1.543259680808831</v>
       </c>
       <c r="P18">
-        <v>1.626713721983506</v>
+        <v>0.1134093075803477</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2404356123357339</v>
+      </c>
+      <c r="R18">
+        <v>1.417628942112898</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.562991043620144</v>
+        <v>1.38770018294656</v>
       </c>
       <c r="C19">
-        <v>0.2340713393951148</v>
+        <v>0.2737938740971515</v>
       </c>
       <c r="D19">
-        <v>0.007138368766316461</v>
+        <v>0.01260225698104733</v>
       </c>
       <c r="E19">
-        <v>0.01259425398878888</v>
+        <v>0.0134544953090181</v>
       </c>
       <c r="F19">
-        <v>1.855492858230818</v>
+        <v>1.575977467313749</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.05207404869831578</v>
+        <v>0.04738018062696625</v>
       </c>
       <c r="I19">
-        <v>0.02855368187022123</v>
+        <v>0.02164640427687647</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>1.091232486552741</v>
+        <v>0.8749034657147163</v>
       </c>
       <c r="L19">
-        <v>0.04162375414313502</v>
+        <v>0.3141053830952245</v>
       </c>
       <c r="M19">
-        <v>1.668402293499355</v>
+        <v>0.3395728082379605</v>
       </c>
       <c r="N19">
-        <v>0.1286798245213205</v>
+        <v>0.0415603400646809</v>
       </c>
       <c r="O19">
-        <v>0.2846450788453723</v>
+        <v>1.58859990264375</v>
       </c>
       <c r="P19">
-        <v>1.730471527998183</v>
+        <v>0.1537048900368703</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.270715987498928</v>
+      </c>
+      <c r="R19">
+        <v>1.485029621191615</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.737630062921426</v>
+        <v>1.527741641909842</v>
       </c>
       <c r="C20">
-        <v>0.2471393168428335</v>
+        <v>0.2942300240615623</v>
       </c>
       <c r="D20">
-        <v>0.00927550055827453</v>
+        <v>0.01642099182014789</v>
       </c>
       <c r="E20">
-        <v>0.01753359959898848</v>
+        <v>0.01833882242604545</v>
       </c>
       <c r="F20">
-        <v>2.157533179456607</v>
+        <v>1.814559782781771</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02076847513241198</v>
+        <v>0.01690365808120076</v>
       </c>
       <c r="I20">
-        <v>0.02465186695233701</v>
+        <v>0.01878331615101025</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835614</v>
       </c>
       <c r="K20">
-        <v>1.261325777245474</v>
+        <v>0.9970164179345957</v>
       </c>
       <c r="L20">
-        <v>0.04676521932605837</v>
+        <v>0.3561430655258491</v>
       </c>
       <c r="M20">
-        <v>1.834757848182733</v>
+        <v>0.3891947151645425</v>
       </c>
       <c r="N20">
-        <v>0.2010667533324977</v>
+        <v>0.0431061309549583</v>
       </c>
       <c r="O20">
-        <v>0.3500525785497786</v>
+        <v>1.738601266804494</v>
       </c>
       <c r="P20">
-        <v>1.904146866797973</v>
+        <v>0.2342632499549211</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3325428236674384</v>
+      </c>
+      <c r="R20">
+        <v>1.590210082567019</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.958282810830667</v>
+        <v>1.71765278954058</v>
       </c>
       <c r="C21">
-        <v>0.2805980769600751</v>
+        <v>0.334818703682032</v>
       </c>
       <c r="D21">
-        <v>0.01053149100027539</v>
+        <v>0.01896697529321401</v>
       </c>
       <c r="E21">
-        <v>0.01996482656017307</v>
+        <v>0.02069098493612476</v>
       </c>
       <c r="F21">
-        <v>2.30943481595169</v>
+        <v>1.924820630321619</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.01509607107033067</v>
+        <v>0.01219431293211456</v>
       </c>
       <c r="I21">
-        <v>0.01867872703857554</v>
+        <v>0.01431867262208453</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>1.333963385885056</v>
+        <v>1.040652095046745</v>
       </c>
       <c r="L21">
-        <v>0.0515077921794731</v>
+        <v>0.362319234494592</v>
       </c>
       <c r="M21">
-        <v>2.069343712872296</v>
+        <v>0.4173901172087611</v>
       </c>
       <c r="N21">
-        <v>0.22855754124366</v>
+        <v>0.04696047222553545</v>
       </c>
       <c r="O21">
-        <v>0.3957823706418537</v>
+        <v>1.958431854041066</v>
       </c>
       <c r="P21">
-        <v>1.910756168960944</v>
+        <v>0.2654589151016893</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3755446636653588</v>
+      </c>
+      <c r="R21">
+        <v>1.567973500140106</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.101551374411372</v>
+        <v>1.841270686195628</v>
       </c>
       <c r="C22">
-        <v>0.3019004002746613</v>
+        <v>0.3605740074547157</v>
       </c>
       <c r="D22">
-        <v>0.0111602451410775</v>
+        <v>0.02034693686663758</v>
       </c>
       <c r="E22">
-        <v>0.02126667605675081</v>
+        <v>0.02193702579974932</v>
       </c>
       <c r="F22">
-        <v>2.402448536752985</v>
+        <v>1.992071135254264</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.01210599509285459</v>
+        <v>0.009735950705445126</v>
       </c>
       <c r="I22">
-        <v>0.01502929515332152</v>
+        <v>0.01146067804712558</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>1.378484440427897</v>
+        <v>1.067225675546332</v>
       </c>
       <c r="L22">
-        <v>0.05422981293090245</v>
+        <v>0.3653133438423808</v>
       </c>
       <c r="M22">
-        <v>2.220773478374554</v>
+        <v>0.4358972715419966</v>
       </c>
       <c r="N22">
-        <v>0.2426165239922398</v>
+        <v>0.04925230326613939</v>
       </c>
       <c r="O22">
-        <v>0.4234645100372418</v>
+        <v>2.100371915360256</v>
       </c>
       <c r="P22">
-        <v>1.911048392916697</v>
+        <v>0.2815843357240624</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.4015178853026384</v>
+      </c>
+      <c r="R22">
+        <v>1.551187737609993</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.028956109052501</v>
+        <v>1.778751329754641</v>
       </c>
       <c r="C23">
-        <v>0.2896312229541991</v>
+        <v>0.3458795149023501</v>
       </c>
       <c r="D23">
-        <v>0.01071054833148111</v>
+        <v>0.01946419674788658</v>
       </c>
       <c r="E23">
-        <v>0.02057738304298162</v>
+        <v>0.02127751943376754</v>
       </c>
       <c r="F23">
-        <v>2.358395687587077</v>
+        <v>1.960929912539029</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.01363151146016339</v>
+        <v>0.01098941248428198</v>
       </c>
       <c r="I23">
-        <v>0.01653974264041302</v>
+        <v>0.0125064096501184</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>1.358866550961139</v>
+        <v>1.056386592697542</v>
       </c>
       <c r="L23">
-        <v>0.05286096485327185</v>
+        <v>0.3649064136112656</v>
       </c>
       <c r="M23">
-        <v>2.141775598610764</v>
+        <v>0.4272867812555603</v>
       </c>
       <c r="N23">
-        <v>0.2346839334398396</v>
+        <v>0.04808831858001561</v>
       </c>
       <c r="O23">
-        <v>0.4090160907589606</v>
+        <v>2.026309770058788</v>
       </c>
       <c r="P23">
-        <v>1.915574998782247</v>
+        <v>0.2725423190272096</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.387958275518784</v>
+      </c>
+      <c r="R23">
+        <v>1.563473826894587</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.748594960464743</v>
+        <v>1.536502661978943</v>
       </c>
       <c r="C24">
-        <v>0.2455406063525345</v>
+        <v>0.2928673597670297</v>
       </c>
       <c r="D24">
-        <v>0.009226300537935828</v>
+        <v>0.01640977697045543</v>
       </c>
       <c r="E24">
-        <v>0.01800758020801663</v>
+        <v>0.01881034246577329</v>
       </c>
       <c r="F24">
-        <v>2.184564424880719</v>
+        <v>1.836792396792362</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02041389166351482</v>
+        <v>0.01658261828092722</v>
       </c>
       <c r="I24">
-        <v>0.02396265482686566</v>
+        <v>0.01802668554154874</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555361169</v>
       </c>
       <c r="K24">
-        <v>1.27864931176655</v>
+        <v>1.010358432365344</v>
       </c>
       <c r="L24">
-        <v>0.04759353777265041</v>
+        <v>0.3611442686752042</v>
       </c>
       <c r="M24">
-        <v>1.841448608559602</v>
+        <v>0.3941569715515669</v>
       </c>
       <c r="N24">
-        <v>0.2055321557874663</v>
+        <v>0.04362397545011465</v>
       </c>
       <c r="O24">
-        <v>0.3539872457380966</v>
+        <v>1.744337583460094</v>
       </c>
       <c r="P24">
-        <v>1.925945198664536</v>
+        <v>0.239248187578383</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3362527416751959</v>
+      </c>
+      <c r="R24">
+        <v>1.605451219836965</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.447898543712967</v>
+        <v>1.275390799659903</v>
       </c>
       <c r="C25">
-        <v>0.1997462482618459</v>
+        <v>0.2378467626585063</v>
       </c>
       <c r="D25">
-        <v>0.007685024027288989</v>
+        <v>0.0132111588027044</v>
       </c>
       <c r="E25">
-        <v>0.01532411466209371</v>
+        <v>0.01621785624811078</v>
       </c>
       <c r="F25">
-        <v>2.001501270746459</v>
+        <v>1.706090208233221</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02963456494948713</v>
+        <v>0.02422584704192299</v>
       </c>
       <c r="I25">
-        <v>0.03415309163426539</v>
+        <v>0.02572673292466732</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>1.193908886725929</v>
+        <v>0.9616838488629398</v>
       </c>
       <c r="L25">
-        <v>0.04199294033247192</v>
+        <v>0.3563585196055996</v>
       </c>
       <c r="M25">
-        <v>1.521055902260713</v>
+        <v>0.3619644533346573</v>
       </c>
       <c r="N25">
-        <v>0.1744384262622987</v>
+        <v>0.03886386913859941</v>
       </c>
       <c r="O25">
-        <v>0.2950527019936047</v>
+        <v>1.442617813574486</v>
       </c>
       <c r="P25">
-        <v>1.93898229573692</v>
+        <v>0.2037971242868366</v>
       </c>
       <c r="Q25">
+        <v>0.2807380516794495</v>
+      </c>
+      <c r="R25">
+        <v>1.652534735803854</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
